--- a/PRD Money transfer (1).xlsx
+++ b/PRD Money transfer (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naimur/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naimur/Documents/GitHub/PRD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247793AB-9760-2147-BA85-BD2D77325666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB48F3-CF51-3D40-B2D5-558F6ACAE4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" tabRatio="216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Product Requirement Document (PRD) - Version: 1.0</t>
   </si>
@@ -214,111 +214,88 @@
     <t>Menu [User]</t>
   </si>
   <si>
-    <t xml:space="preserve">  Dashboard
-  Send money
-  Public Ledger
-  Latest Blocks
-  View Profile
-  Edit Profile
-  Change Profile Photo
-  Change Password</t>
-  </si>
-  <si>
-    <t>- Dashboard(link)
-- Send money(link)
-- public ledger (link)
-- Latest Blocks (link)
-- View Profile(link)
-- Edit profile(link)
-- change profile photo(link)
-- change password(link)</t>
-  </si>
-  <si>
-    <t>- clicking dashboard will take user to dashboard page
-- go to send money page on click
-- go to public ledger on Click
-- go to Latest blocks page on click
-- go to view profile page on click
-- go to edit profile page on Click
-- go to change profile page on Click
-- go to change password page on Click</t>
-  </si>
-  <si>
     <t>Menu</t>
-  </si>
-  <si>
-    <t>Menu[Miner]</t>
-  </si>
-  <si>
-    <t>&lt;Unordered list&gt; 
-  Dashboard
-  Send money
-  Public Ledger
-  Latest Blocks
-  Mempool
-  Mine block
-  Verify blocks
-  View Profile
-  Edit Profile
-  Change Profile Photo
-  Change Password</t>
-  </si>
-  <si>
-    <t>- Dashboard(link)
-- Send money(link)
-- public ledger(link)
-- Latest blocks(link)
-- Mempool(link)
-- Mine Blocks(link)
-- Verify Blocks(link)
-- View Profile(link)
-- Edit profile(link)
-- change profile photo(link)
-- change password(link)</t>
-  </si>
-  <si>
-    <t>- clicking dashboard will take user to dashboard page
-- go to send money page on click
-- go to public ledger on Click
-- go to Latest blocks page on click
-- go to mempool page on click
-- go to mine blocks page on click
-- go to verify blocks page on click
-- go to view profile page on click
-- go to edit profile page on Click
-- go to change profile page on Click
-- go to change password page on Click</t>
-  </si>
-  <si>
-    <t>Dashboard  [Miner] [User]</t>
-  </si>
-  <si>
-    <t>&lt;table&gt;
-    Balance : 100.23 BTC
-    View transaction history (link)
-    Your public key
-    Your private key
-    Your bitcoin address</t>
-  </si>
-  <si>
-    <t>- Balance (text)
-- trx history(link)
-- public key (text)
-- private key(text)
-- bitcoin address(text)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- show appropiate Balance ( should not be less than 0)
-- clicking trx history link will take user to trx history page
-- public key is shown 
-- private key is only shown when clicked 
-- bitcoin address is shown </t>
   </si>
   <si>
     <t>Auth Feature</t>
   </si>
   <si>
     <t>Web2</t>
+  </si>
+  <si>
+    <t>- Logo (link)
+-Home (link)
+-Accommodation (link)
+-Offers (link)
+-Gallery (link)
+-Restaurants (link)
+-More (link)
+-Sign in (link)
+-Sign up (link)
+-Cart (link)
+-Toggle (button)</t>
+  </si>
+  <si>
+    <t>- Clicking logo will take the user to the home page
+- go to home page on click 
+- go to Accommodation page on click
+- go to offers page on click
+- go to restaurants page on click
+- go to more page on click
+- go to sign in page on click
+- go to sign up page on click
+- go to cart page on click
+- toggle dark and light theme on click</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Feature: 3</t>
+  </si>
+  <si>
+    <t>Search [User]</t>
+  </si>
+  <si>
+    <t>Logo
+&lt;Unordeded list&gt;
+Home
+Accommodation
+Offers
+Gallery
+Restaurants
+More
+Sign in
+Sign up
+Cart
+&lt;button = Toggle&gt;</t>
+  </si>
+  <si>
+    <t>&lt;date = Check-in&gt;
+&lt;date = Check-out&gt;
+&lt;option = No of guests&gt;
+&lt;button = search&gt;</t>
+  </si>
+  <si>
+    <t>- Check in (date)
+- Check out (date)
+- No of guests (option)
+- Search (button)</t>
+  </si>
+  <si>
+    <t>- clicking check in will give option to set date
+- clicking check in will give option to set date
+- select number for number of guests
+- clicking search button will show the available rooms</t>
+  </si>
+  <si>
+    <t>Feature: 4</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>Slider [User]</t>
   </si>
 </sst>
 </file>
@@ -680,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,9 +777,6 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,9 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -864,62 +835,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -936,6 +853,60 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,23 +1059,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>711627</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>63046</xdr:rowOff>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1246345</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2577817" cy="2601686"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4847450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1723572</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF29CE84-2294-4F88-AF98-46A012C3C40E}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EC6CAC4F-CB21-EC17-FE22-90DB12AFE02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48133EC1-BE68-FC3E-7046-C0631C87F15E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,8 +1093,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16922803" y="20278458"/>
-          <a:ext cx="2577817" cy="2601686"/>
+          <a:off x="16419285" y="14672059"/>
+          <a:ext cx="4635784" cy="477227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1129,125 +1102,47 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>567765</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>339592</xdr:rowOff>
+      <xdr:colOff>117921</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1459820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2781650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57748</xdr:rowOff>
+      <xdr:colOff>4980780</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1871210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="No description available.">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6305200-AF2F-3283-34F1-C6D58768950B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E46557-AC05-0944-BEED-98BA402EEA52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="16778941" y="13756768"/>
-          <a:ext cx="2213885" cy="2915568"/>
+          <a:off x="16330265" y="18307164"/>
+          <a:ext cx="4862859" cy="411390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>402771</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2307956</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3448970</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="No description available.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3C5F13-36F5-3B58-FC91-EF19A8E765E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14303828" y="17819914"/>
-          <a:ext cx="1905185" cy="3428999"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1456,10 +1351,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y988"/>
+  <dimension ref="A1:Y983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -1477,15 +1372,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="80"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1533,15 +1428,15 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="37"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
@@ -1564,16 +1459,16 @@
       <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="152.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="66"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="1"/>
@@ -1595,13 +1490,13 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="37"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
@@ -1624,15 +1519,15 @@
       <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="78" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="37"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
@@ -1655,15 +1550,15 @@
       <c r="Y6" s="12"/>
     </row>
     <row r="7" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="78" t="s">
-        <v>54</v>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81" t="s">
+        <v>43</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="37"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
@@ -1686,15 +1581,15 @@
       <c r="Y7" s="12"/>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="82" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="37"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1717,15 +1612,15 @@
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="78" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="37"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1775,14 +1670,14 @@
       <c r="Y10" s="12"/>
     </row>
     <row r="11" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -1802,28 +1697,28 @@
       <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="1:25" ht="17" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="56" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="18"/>
@@ -1845,18 +1740,18 @@
       <c r="Y12" s="20"/>
     </row>
     <row r="13" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="81" t="s">
-        <v>53</v>
+      <c r="B13" s="78"/>
+      <c r="C13" s="87" t="s">
+        <v>42</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -1876,26 +1771,26 @@
       <c r="Y13" s="20"/>
     </row>
     <row r="14" spans="1:25" ht="257.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="60">
         <v>1</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="23"/>
@@ -1917,26 +1812,26 @@
       <c r="Y14" s="9"/>
     </row>
     <row r="15" spans="1:25" ht="210.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="60">
         <v>2</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64" t="s">
+      <c r="G15" s="61"/>
+      <c r="H15" s="62" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="23"/>
@@ -1958,26 +1853,26 @@
       <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:25" ht="120" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="60">
         <v>3</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64" t="s">
+      <c r="G16" s="61"/>
+      <c r="H16" s="62" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="26"/>
@@ -1999,18 +1894,18 @@
       <c r="Y16" s="9"/>
     </row>
     <row r="17" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
@@ -2030,27 +1925,27 @@
       <c r="Y17" s="20"/>
     </row>
     <row r="18" spans="1:25" ht="252.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="43">
         <v>4</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
-      <c r="E18" s="47" t="s">
-        <v>42</v>
+      <c r="E18" s="46" t="s">
+        <v>44</v>
       </c>
-      <c r="F18" s="47" t="s">
-        <v>43</v>
+      <c r="F18" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="G18" s="41"/>
-      <c r="H18" s="48" t="s">
-        <v>44</v>
+      <c r="H18" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="30"/>
@@ -2070,93 +1965,91 @@
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
     </row>
-    <row r="19" spans="1:25" ht="283.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="65" t="s">
+    <row r="19" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+    </row>
+    <row r="20" spans="1:25" ht="255.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B20" s="45">
         <v>5</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>45</v>
+      <c r="C20" s="45" t="s">
+        <v>48</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D20" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-    </row>
-    <row r="20" spans="1:25" ht="213" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="50">
-        <v>6</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="20"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
     </row>
     <row r="21" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="85"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
+      <c r="A21" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -2175,15 +2068,21 @@
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
     </row>
-    <row r="22" spans="1:25" ht="135" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="49"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="51"/>
+    <row r="22" spans="1:25" ht="314.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="45">
+        <v>6</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
@@ -2202,15 +2101,15 @@
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
     </row>
-    <row r="23" spans="1:25" ht="110.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+    <row r="23" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
@@ -2229,15 +2128,15 @@
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
     </row>
-    <row r="24" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
+    <row r="24" spans="1:25" ht="212.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="48"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
@@ -2256,15 +2155,15 @@
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
     </row>
-    <row r="25" spans="1:25" ht="255.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="51"/>
+    <row r="25" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
       <c r="I25" s="27"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -2283,15 +2182,15 @@
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
     </row>
-    <row r="26" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="85"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
+    <row r="26" spans="1:25" ht="217.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="48"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="49"/>
       <c r="I26" s="27"/>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
@@ -2310,15 +2209,15 @@
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
     </row>
-    <row r="27" spans="1:25" ht="314.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="49"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
+    <row r="27" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
@@ -2337,15 +2236,15 @@
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
     </row>
-    <row r="28" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="85"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
+    <row r="28" spans="1:25" ht="210.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="48"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
@@ -2364,15 +2263,15 @@
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
     </row>
-    <row r="29" spans="1:25" ht="212.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="49"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="51"/>
+    <row r="29" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
       <c r="I29" s="27"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
@@ -2391,15 +2290,15 @@
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
     </row>
-    <row r="30" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="85"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+    <row r="30" spans="1:25" ht="308.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="48"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="27"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
@@ -2418,15 +2317,15 @@
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
     </row>
-    <row r="31" spans="1:25" ht="217.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="49"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="51"/>
+    <row r="31" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="48"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="27"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
@@ -2445,15 +2344,15 @@
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
     </row>
-    <row r="32" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="85"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
+    <row r="32" spans="1:25" ht="203" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="48"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
@@ -2472,15 +2371,15 @@
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
     </row>
-    <row r="33" spans="1:25" ht="210.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="49"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="51"/>
+    <row r="33" spans="1:25" ht="227.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="48"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="27"/>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
@@ -2499,15 +2398,15 @@
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
     </row>
-    <row r="34" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="85"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
+    <row r="34" spans="1:25" ht="221" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
       <c r="I34" s="27"/>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
@@ -2526,15 +2425,15 @@
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
     </row>
-    <row r="35" spans="1:25" ht="308.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="49"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
+    <row r="35" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="27"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
@@ -2554,14 +2453,14 @@
       <c r="Y35" s="20"/>
     </row>
     <row r="36" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="85"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="49"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
@@ -2580,15 +2479,15 @@
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
     </row>
-    <row r="37" spans="1:25" ht="203" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="49"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+    <row r="37" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
       <c r="I37" s="27"/>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
@@ -2607,15 +2506,15 @@
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
     </row>
-    <row r="38" spans="1:25" ht="227.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="49"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+    <row r="38" spans="1:25" ht="275" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="48"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="27"/>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
@@ -2634,15 +2533,15 @@
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
     </row>
-    <row r="39" spans="1:25" ht="221" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="49"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
+    <row r="39" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="48"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
       <c r="I39" s="27"/>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
@@ -2662,14 +2561,14 @@
       <c r="Y39" s="20"/>
     </row>
     <row r="40" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="49"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
       <c r="I40" s="27"/>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
@@ -2688,15 +2587,15 @@
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
     </row>
-    <row r="41" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="85"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
+    <row r="41" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="48"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
       <c r="I41" s="27"/>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
@@ -2715,15 +2614,15 @@
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
     </row>
-    <row r="42" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="49"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="51"/>
+    <row r="42" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="70"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
       <c r="I42" s="27"/>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
@@ -2742,15 +2641,15 @@
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
     </row>
-    <row r="43" spans="1:25" ht="275" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="49"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="51"/>
+    <row r="43" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="48"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="27"/>
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
@@ -2770,14 +2669,14 @@
       <c r="Y43" s="20"/>
     </row>
     <row r="44" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="85"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
       <c r="I44" s="27"/>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
@@ -2797,14 +2696,14 @@
       <c r="Y44" s="20"/>
     </row>
     <row r="45" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="49"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="51"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
       <c r="I45" s="27"/>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
@@ -2823,15 +2722,15 @@
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
     </row>
-    <row r="46" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="49"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
+    <row r="46" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="70"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
       <c r="I46" s="27"/>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
@@ -2850,15 +2749,15 @@
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
     </row>
-    <row r="47" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="85"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
+    <row r="47" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="48"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="49"/>
       <c r="I47" s="27"/>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
@@ -2877,15 +2776,15 @@
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
     </row>
-    <row r="48" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="49"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
+    <row r="48" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="70"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
       <c r="I48" s="27"/>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
@@ -2904,15 +2803,15 @@
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
     </row>
-    <row r="49" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="85"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
+    <row r="49" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="48"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="49"/>
       <c r="I49" s="27"/>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
@@ -2931,15 +2830,15 @@
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
     </row>
-    <row r="50" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="49"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
+    <row r="50" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="70"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
       <c r="I50" s="27"/>
       <c r="J50" s="28"/>
       <c r="K50" s="28"/>
@@ -2958,15 +2857,15 @@
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
     </row>
-    <row r="51" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="85"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
+    <row r="51" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="48"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
       <c r="I51" s="27"/>
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
@@ -2985,15 +2884,15 @@
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
     </row>
-    <row r="52" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="49"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+    <row r="52" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="70"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
       <c r="I52" s="27"/>
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
@@ -3012,15 +2911,15 @@
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
     </row>
-    <row r="53" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="85"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
+    <row r="53" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="48"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="49"/>
       <c r="I53" s="27"/>
       <c r="J53" s="28"/>
       <c r="K53" s="28"/>
@@ -3039,15 +2938,15 @@
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
     </row>
-    <row r="54" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="49"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="51"/>
+    <row r="54" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="70"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
       <c r="I54" s="27"/>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
@@ -3066,15 +2965,15 @@
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
     </row>
-    <row r="55" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="85"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
+    <row r="55" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="48"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="49"/>
       <c r="I55" s="27"/>
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
@@ -3093,15 +2992,15 @@
       <c r="X55" s="20"/>
       <c r="Y55" s="20"/>
     </row>
-    <row r="56" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="49"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="51"/>
+    <row r="56" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="70"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
       <c r="I56" s="27"/>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
@@ -3120,15 +3019,15 @@
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
     </row>
-    <row r="57" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="85"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
+    <row r="57" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="48"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
       <c r="I57" s="27"/>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
@@ -3147,15 +3046,15 @@
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
     </row>
-    <row r="58" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="49"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
+    <row r="58" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="70"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
       <c r="I58" s="27"/>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
@@ -3174,15 +3073,15 @@
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
     </row>
-    <row r="59" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="85"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
+    <row r="59" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="48"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
       <c r="I59" s="27"/>
       <c r="J59" s="28"/>
       <c r="K59" s="28"/>
@@ -3201,15 +3100,15 @@
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
     </row>
-    <row r="60" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="49"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="51"/>
+    <row r="60" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="70"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
       <c r="I60" s="27"/>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
@@ -3228,15 +3127,15 @@
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
     </row>
-    <row r="61" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="85"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
+    <row r="61" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="48"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="49"/>
       <c r="I61" s="27"/>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
@@ -3255,15 +3154,15 @@
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
     </row>
-    <row r="62" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="49"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="51"/>
+    <row r="62" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
       <c r="I62" s="27"/>
       <c r="J62" s="28"/>
       <c r="K62" s="28"/>
@@ -3282,15 +3181,15 @@
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
     </row>
-    <row r="63" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="85"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86"/>
+    <row r="63" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
       <c r="I63" s="27"/>
       <c r="J63" s="28"/>
       <c r="K63" s="28"/>
@@ -3309,150 +3208,145 @@
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
     </row>
-    <row r="64" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="49"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="20"/>
-      <c r="Y64" s="20"/>
-    </row>
-    <row r="65" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="85"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="20"/>
-      <c r="Y65" s="20"/>
-    </row>
-    <row r="66" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="49"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-    </row>
-    <row r="67" spans="1:25" ht="24.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="85"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="87"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="28"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="20"/>
-      <c r="Y67" s="20"/>
-    </row>
-    <row r="68" spans="1:25" ht="198.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="49"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="28"/>
-      <c r="U68" s="28"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="20"/>
-      <c r="Y68" s="20"/>
-    </row>
-    <row r="69" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="90"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="93"/>
+    <row r="64" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+    </row>
+    <row r="65" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+    </row>
+    <row r="66" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+    </row>
+    <row r="67" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+    </row>
+    <row r="68" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+    </row>
+    <row r="69" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="32"/>
       <c r="J69" s="32"/>
       <c r="K69" s="9"/>
@@ -3470,137 +3364,137 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
     </row>
-    <row r="70" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
       <c r="K70" s="9"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
       <c r="R70" s="9"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="32"/>
-      <c r="U70" s="32"/>
-      <c r="V70" s="32"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
       <c r="K71" s="9"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
       <c r="R71" s="9"/>
-      <c r="S71" s="32"/>
-      <c r="T71" s="32"/>
-      <c r="U71" s="32"/>
-      <c r="V71" s="32"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
     </row>
-    <row r="72" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
       <c r="K72" s="9"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="32"/>
-      <c r="T72" s="32"/>
-      <c r="U72" s="32"/>
-      <c r="V72" s="32"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
     </row>
-    <row r="73" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
       <c r="K73" s="9"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
       <c r="N73" s="9"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
       <c r="R73" s="9"/>
-      <c r="S73" s="32"/>
-      <c r="T73" s="32"/>
-      <c r="U73" s="32"/>
-      <c r="V73" s="32"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
     </row>
-    <row r="74" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
       <c r="K74" s="9"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
       <c r="N74" s="9"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
       <c r="R74" s="9"/>
-      <c r="S74" s="32"/>
-      <c r="T74" s="32"/>
-      <c r="U74" s="32"/>
-      <c r="V74" s="32"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
     </row>
-    <row r="75" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="34"/>
@@ -3626,7 +3520,7 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
     </row>
-    <row r="76" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="34"/>
@@ -3652,7 +3546,7 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
     </row>
-    <row r="77" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="34"/>
@@ -3678,7 +3572,7 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
     </row>
-    <row r="78" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="34"/>
@@ -3704,7 +3598,7 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
     </row>
-    <row r="79" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="34"/>
@@ -3730,7 +3624,7 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="34"/>
@@ -4643,12 +4537,12 @@
     <row r="115" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="75"/>
+      <c r="F115" s="73"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="75"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
       <c r="K115" s="9"/>
@@ -4669,12 +4563,12 @@
     <row r="116" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="75"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="75"/>
       <c r="I116" s="11"/>
       <c r="J116" s="11"/>
       <c r="K116" s="9"/>
@@ -4695,153 +4589,158 @@
     <row r="117" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="9"/>
-      <c r="O117" s="11"/>
-      <c r="P117" s="11"/>
-      <c r="Q117" s="11"/>
-      <c r="R117" s="9"/>
-      <c r="S117" s="11"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="75"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="75"/>
+      <c r="I117" s="73"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="75"/>
+      <c r="M117" s="73"/>
+      <c r="N117" s="74"/>
+      <c r="O117" s="75"/>
+      <c r="P117" s="73"/>
+      <c r="Q117" s="74"/>
+      <c r="R117" s="74"/>
+      <c r="S117" s="75"/>
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
       <c r="V117" s="11"/>
-      <c r="W117" s="9"/>
-      <c r="X117" s="9"/>
+      <c r="W117" s="11"/>
+      <c r="X117" s="11"/>
+      <c r="Y117" s="12"/>
     </row>
     <row r="118" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="9"/>
-      <c r="O118" s="11"/>
-      <c r="P118" s="11"/>
-      <c r="Q118" s="11"/>
-      <c r="R118" s="9"/>
-      <c r="S118" s="11"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="75"/>
+      <c r="F118" s="73"/>
+      <c r="G118" s="74"/>
+      <c r="H118" s="75"/>
+      <c r="I118" s="73"/>
+      <c r="J118" s="74"/>
+      <c r="K118" s="74"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="73"/>
+      <c r="N118" s="74"/>
+      <c r="O118" s="75"/>
+      <c r="P118" s="73"/>
+      <c r="Q118" s="74"/>
+      <c r="R118" s="74"/>
+      <c r="S118" s="75"/>
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
       <c r="V118" s="11"/>
-      <c r="W118" s="9"/>
-      <c r="X118" s="9"/>
+      <c r="W118" s="11"/>
+      <c r="X118" s="11"/>
+      <c r="Y118" s="12"/>
     </row>
     <row r="119" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="9"/>
-      <c r="O119" s="11"/>
-      <c r="P119" s="11"/>
-      <c r="Q119" s="11"/>
-      <c r="R119" s="9"/>
-      <c r="S119" s="11"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="75"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="74"/>
+      <c r="H119" s="75"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="74"/>
+      <c r="K119" s="74"/>
+      <c r="L119" s="75"/>
+      <c r="M119" s="73"/>
+      <c r="N119" s="74"/>
+      <c r="O119" s="75"/>
+      <c r="P119" s="73"/>
+      <c r="Q119" s="74"/>
+      <c r="R119" s="74"/>
+      <c r="S119" s="75"/>
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
       <c r="V119" s="11"/>
-      <c r="W119" s="9"/>
-      <c r="X119" s="9"/>
+      <c r="W119" s="11"/>
+      <c r="X119" s="11"/>
+      <c r="Y119" s="12"/>
     </row>
     <row r="120" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="11"/>
-      <c r="P120" s="11"/>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="9"/>
-      <c r="S120" s="11"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="75"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="75"/>
+      <c r="I120" s="73"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
+      <c r="L120" s="75"/>
+      <c r="M120" s="73"/>
+      <c r="N120" s="74"/>
+      <c r="O120" s="75"/>
+      <c r="P120" s="73"/>
+      <c r="Q120" s="74"/>
+      <c r="R120" s="74"/>
+      <c r="S120" s="75"/>
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
       <c r="V120" s="11"/>
-      <c r="W120" s="9"/>
-      <c r="X120" s="9"/>
+      <c r="W120" s="11"/>
+      <c r="X120" s="11"/>
+      <c r="Y120" s="12"/>
     </row>
     <row r="121" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="9"/>
-      <c r="S121" s="11"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="73"/>
+      <c r="G121" s="74"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="73"/>
+      <c r="J121" s="74"/>
+      <c r="K121" s="74"/>
+      <c r="L121" s="75"/>
+      <c r="M121" s="73"/>
+      <c r="N121" s="74"/>
+      <c r="O121" s="75"/>
+      <c r="P121" s="73"/>
+      <c r="Q121" s="74"/>
+      <c r="R121" s="74"/>
+      <c r="S121" s="75"/>
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
       <c r="V121" s="11"/>
-      <c r="W121" s="9"/>
-      <c r="X121" s="9"/>
+      <c r="W121" s="11"/>
+      <c r="X121" s="11"/>
+      <c r="Y121" s="12"/>
     </row>
     <row r="122" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="68"/>
-      <c r="E122" s="69"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="68"/>
-      <c r="H122" s="69"/>
-      <c r="I122" s="67"/>
-      <c r="J122" s="68"/>
-      <c r="K122" s="68"/>
-      <c r="L122" s="69"/>
-      <c r="M122" s="67"/>
-      <c r="N122" s="68"/>
-      <c r="O122" s="69"/>
-      <c r="P122" s="67"/>
-      <c r="Q122" s="68"/>
-      <c r="R122" s="68"/>
-      <c r="S122" s="69"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="75"/>
+      <c r="F122" s="73"/>
+      <c r="G122" s="74"/>
+      <c r="H122" s="75"/>
+      <c r="I122" s="73"/>
+      <c r="J122" s="74"/>
+      <c r="K122" s="74"/>
+      <c r="L122" s="75"/>
+      <c r="M122" s="73"/>
+      <c r="N122" s="74"/>
+      <c r="O122" s="75"/>
+      <c r="P122" s="73"/>
+      <c r="Q122" s="74"/>
+      <c r="R122" s="74"/>
+      <c r="S122" s="75"/>
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
       <c r="V122" s="11"/>
@@ -4852,23 +4751,23 @@
     <row r="123" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="68"/>
-      <c r="H123" s="69"/>
-      <c r="I123" s="67"/>
-      <c r="J123" s="68"/>
-      <c r="K123" s="68"/>
-      <c r="L123" s="69"/>
-      <c r="M123" s="67"/>
-      <c r="N123" s="68"/>
-      <c r="O123" s="69"/>
-      <c r="P123" s="67"/>
-      <c r="Q123" s="68"/>
-      <c r="R123" s="68"/>
-      <c r="S123" s="69"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="75"/>
+      <c r="F123" s="73"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="75"/>
+      <c r="I123" s="73"/>
+      <c r="J123" s="74"/>
+      <c r="K123" s="74"/>
+      <c r="L123" s="75"/>
+      <c r="M123" s="73"/>
+      <c r="N123" s="74"/>
+      <c r="O123" s="75"/>
+      <c r="P123" s="73"/>
+      <c r="Q123" s="74"/>
+      <c r="R123" s="74"/>
+      <c r="S123" s="75"/>
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
       <c r="V123" s="11"/>
@@ -4879,23 +4778,23 @@
     <row r="124" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="68"/>
-      <c r="H124" s="69"/>
-      <c r="I124" s="67"/>
-      <c r="J124" s="68"/>
-      <c r="K124" s="68"/>
-      <c r="L124" s="69"/>
-      <c r="M124" s="67"/>
-      <c r="N124" s="68"/>
-      <c r="O124" s="69"/>
-      <c r="P124" s="67"/>
-      <c r="Q124" s="68"/>
-      <c r="R124" s="68"/>
-      <c r="S124" s="69"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="75"/>
+      <c r="F124" s="73"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="75"/>
+      <c r="I124" s="73"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="75"/>
+      <c r="M124" s="73"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="75"/>
+      <c r="P124" s="73"/>
+      <c r="Q124" s="74"/>
+      <c r="R124" s="74"/>
+      <c r="S124" s="75"/>
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
       <c r="V124" s="11"/>
@@ -4906,23 +4805,23 @@
     <row r="125" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="69"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="69"/>
-      <c r="I125" s="67"/>
-      <c r="J125" s="68"/>
-      <c r="K125" s="68"/>
-      <c r="L125" s="69"/>
-      <c r="M125" s="67"/>
-      <c r="N125" s="68"/>
-      <c r="O125" s="69"/>
-      <c r="P125" s="67"/>
-      <c r="Q125" s="68"/>
-      <c r="R125" s="68"/>
-      <c r="S125" s="69"/>
+      <c r="C125" s="76"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="75"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="75"/>
+      <c r="I125" s="73"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="74"/>
+      <c r="L125" s="75"/>
+      <c r="M125" s="73"/>
+      <c r="N125" s="74"/>
+      <c r="O125" s="75"/>
+      <c r="P125" s="73"/>
+      <c r="Q125" s="74"/>
+      <c r="R125" s="74"/>
+      <c r="S125" s="75"/>
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
       <c r="V125" s="11"/>
@@ -4933,23 +4832,23 @@
     <row r="126" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="69"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="68"/>
-      <c r="H126" s="69"/>
-      <c r="I126" s="67"/>
-      <c r="J126" s="68"/>
-      <c r="K126" s="68"/>
-      <c r="L126" s="69"/>
-      <c r="M126" s="67"/>
-      <c r="N126" s="68"/>
-      <c r="O126" s="69"/>
-      <c r="P126" s="67"/>
-      <c r="Q126" s="68"/>
-      <c r="R126" s="68"/>
-      <c r="S126" s="69"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="74"/>
+      <c r="E126" s="75"/>
+      <c r="F126" s="73"/>
+      <c r="G126" s="74"/>
+      <c r="H126" s="75"/>
+      <c r="I126" s="73"/>
+      <c r="J126" s="74"/>
+      <c r="K126" s="74"/>
+      <c r="L126" s="75"/>
+      <c r="M126" s="73"/>
+      <c r="N126" s="74"/>
+      <c r="O126" s="75"/>
+      <c r="P126" s="73"/>
+      <c r="Q126" s="74"/>
+      <c r="R126" s="74"/>
+      <c r="S126" s="75"/>
       <c r="T126" s="11"/>
       <c r="U126" s="11"/>
       <c r="V126" s="11"/>
@@ -4960,23 +4859,23 @@
     <row r="127" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
-      <c r="C127" s="70"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="69"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="68"/>
-      <c r="H127" s="69"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="68"/>
-      <c r="K127" s="68"/>
-      <c r="L127" s="69"/>
-      <c r="M127" s="67"/>
-      <c r="N127" s="68"/>
-      <c r="O127" s="69"/>
-      <c r="P127" s="67"/>
-      <c r="Q127" s="68"/>
-      <c r="R127" s="68"/>
-      <c r="S127" s="69"/>
+      <c r="C127" s="76"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="75"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="75"/>
+      <c r="I127" s="73"/>
+      <c r="J127" s="74"/>
+      <c r="K127" s="74"/>
+      <c r="L127" s="75"/>
+      <c r="M127" s="73"/>
+      <c r="N127" s="74"/>
+      <c r="O127" s="75"/>
+      <c r="P127" s="73"/>
+      <c r="Q127" s="74"/>
+      <c r="R127" s="74"/>
+      <c r="S127" s="75"/>
       <c r="T127" s="11"/>
       <c r="U127" s="11"/>
       <c r="V127" s="11"/>
@@ -4987,23 +4886,23 @@
     <row r="128" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="70"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="69"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="68"/>
-      <c r="H128" s="69"/>
-      <c r="I128" s="67"/>
-      <c r="J128" s="68"/>
-      <c r="K128" s="68"/>
-      <c r="L128" s="69"/>
-      <c r="M128" s="67"/>
-      <c r="N128" s="68"/>
-      <c r="O128" s="69"/>
-      <c r="P128" s="67"/>
-      <c r="Q128" s="68"/>
-      <c r="R128" s="68"/>
-      <c r="S128" s="69"/>
+      <c r="C128" s="76"/>
+      <c r="D128" s="74"/>
+      <c r="E128" s="75"/>
+      <c r="F128" s="73"/>
+      <c r="G128" s="74"/>
+      <c r="H128" s="75"/>
+      <c r="I128" s="73"/>
+      <c r="J128" s="74"/>
+      <c r="K128" s="74"/>
+      <c r="L128" s="75"/>
+      <c r="M128" s="73"/>
+      <c r="N128" s="74"/>
+      <c r="O128" s="75"/>
+      <c r="P128" s="73"/>
+      <c r="Q128" s="74"/>
+      <c r="R128" s="74"/>
+      <c r="S128" s="75"/>
       <c r="T128" s="11"/>
       <c r="U128" s="11"/>
       <c r="V128" s="11"/>
@@ -5014,23 +4913,23 @@
     <row r="129" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="68"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="68"/>
-      <c r="K129" s="68"/>
-      <c r="L129" s="69"/>
-      <c r="M129" s="67"/>
-      <c r="N129" s="68"/>
-      <c r="O129" s="69"/>
-      <c r="P129" s="67"/>
-      <c r="Q129" s="68"/>
-      <c r="R129" s="68"/>
-      <c r="S129" s="69"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="75"/>
+      <c r="F129" s="73"/>
+      <c r="G129" s="74"/>
+      <c r="H129" s="75"/>
+      <c r="I129" s="73"/>
+      <c r="J129" s="74"/>
+      <c r="K129" s="74"/>
+      <c r="L129" s="75"/>
+      <c r="M129" s="73"/>
+      <c r="N129" s="74"/>
+      <c r="O129" s="75"/>
+      <c r="P129" s="73"/>
+      <c r="Q129" s="74"/>
+      <c r="R129" s="74"/>
+      <c r="S129" s="75"/>
       <c r="T129" s="11"/>
       <c r="U129" s="11"/>
       <c r="V129" s="11"/>
@@ -5041,23 +4940,23 @@
     <row r="130" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="68"/>
-      <c r="E130" s="69"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="68"/>
-      <c r="H130" s="69"/>
-      <c r="I130" s="67"/>
-      <c r="J130" s="68"/>
-      <c r="K130" s="68"/>
-      <c r="L130" s="69"/>
-      <c r="M130" s="67"/>
-      <c r="N130" s="68"/>
-      <c r="O130" s="69"/>
-      <c r="P130" s="67"/>
-      <c r="Q130" s="68"/>
-      <c r="R130" s="68"/>
-      <c r="S130" s="69"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="74"/>
+      <c r="E130" s="75"/>
+      <c r="F130" s="73"/>
+      <c r="G130" s="74"/>
+      <c r="H130" s="75"/>
+      <c r="I130" s="73"/>
+      <c r="J130" s="74"/>
+      <c r="K130" s="74"/>
+      <c r="L130" s="75"/>
+      <c r="M130" s="73"/>
+      <c r="N130" s="74"/>
+      <c r="O130" s="75"/>
+      <c r="P130" s="73"/>
+      <c r="Q130" s="74"/>
+      <c r="R130" s="74"/>
+      <c r="S130" s="75"/>
       <c r="T130" s="11"/>
       <c r="U130" s="11"/>
       <c r="V130" s="11"/>
@@ -5068,23 +4967,23 @@
     <row r="131" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="68"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="68"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="68"/>
-      <c r="K131" s="68"/>
-      <c r="L131" s="69"/>
-      <c r="M131" s="67"/>
-      <c r="N131" s="68"/>
-      <c r="O131" s="69"/>
-      <c r="P131" s="67"/>
-      <c r="Q131" s="68"/>
-      <c r="R131" s="68"/>
-      <c r="S131" s="69"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="75"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="74"/>
+      <c r="H131" s="75"/>
+      <c r="I131" s="73"/>
+      <c r="J131" s="74"/>
+      <c r="K131" s="74"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="73"/>
+      <c r="N131" s="74"/>
+      <c r="O131" s="75"/>
+      <c r="P131" s="73"/>
+      <c r="Q131" s="74"/>
+      <c r="R131" s="74"/>
+      <c r="S131" s="75"/>
       <c r="T131" s="11"/>
       <c r="U131" s="11"/>
       <c r="V131" s="11"/>
@@ -5095,23 +4994,23 @@
     <row r="132" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
-      <c r="C132" s="70"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="68"/>
-      <c r="H132" s="69"/>
-      <c r="I132" s="67"/>
-      <c r="J132" s="68"/>
-      <c r="K132" s="68"/>
-      <c r="L132" s="69"/>
-      <c r="M132" s="67"/>
-      <c r="N132" s="68"/>
-      <c r="O132" s="69"/>
-      <c r="P132" s="67"/>
-      <c r="Q132" s="68"/>
-      <c r="R132" s="68"/>
-      <c r="S132" s="69"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="75"/>
+      <c r="F132" s="73"/>
+      <c r="G132" s="74"/>
+      <c r="H132" s="75"/>
+      <c r="I132" s="73"/>
+      <c r="J132" s="74"/>
+      <c r="K132" s="74"/>
+      <c r="L132" s="75"/>
+      <c r="M132" s="73"/>
+      <c r="N132" s="74"/>
+      <c r="O132" s="75"/>
+      <c r="P132" s="73"/>
+      <c r="Q132" s="74"/>
+      <c r="R132" s="74"/>
+      <c r="S132" s="75"/>
       <c r="T132" s="11"/>
       <c r="U132" s="11"/>
       <c r="V132" s="11"/>
@@ -5122,23 +5021,23 @@
     <row r="133" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="69"/>
-      <c r="F133" s="67"/>
-      <c r="G133" s="68"/>
-      <c r="H133" s="69"/>
-      <c r="I133" s="67"/>
-      <c r="J133" s="68"/>
-      <c r="K133" s="68"/>
-      <c r="L133" s="69"/>
-      <c r="M133" s="67"/>
-      <c r="N133" s="68"/>
-      <c r="O133" s="69"/>
-      <c r="P133" s="67"/>
-      <c r="Q133" s="68"/>
-      <c r="R133" s="68"/>
-      <c r="S133" s="69"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="74"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="73"/>
+      <c r="J133" s="74"/>
+      <c r="K133" s="74"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="73"/>
+      <c r="N133" s="74"/>
+      <c r="O133" s="75"/>
+      <c r="P133" s="73"/>
+      <c r="Q133" s="74"/>
+      <c r="R133" s="74"/>
+      <c r="S133" s="75"/>
       <c r="T133" s="11"/>
       <c r="U133" s="11"/>
       <c r="V133" s="11"/>
@@ -5149,23 +5048,23 @@
     <row r="134" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="69"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="68"/>
-      <c r="H134" s="69"/>
-      <c r="I134" s="67"/>
-      <c r="J134" s="68"/>
-      <c r="K134" s="68"/>
-      <c r="L134" s="69"/>
-      <c r="M134" s="67"/>
-      <c r="N134" s="68"/>
-      <c r="O134" s="69"/>
-      <c r="P134" s="67"/>
-      <c r="Q134" s="68"/>
-      <c r="R134" s="68"/>
-      <c r="S134" s="69"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="73"/>
+      <c r="G134" s="74"/>
+      <c r="H134" s="75"/>
+      <c r="I134" s="73"/>
+      <c r="J134" s="74"/>
+      <c r="K134" s="74"/>
+      <c r="L134" s="75"/>
+      <c r="M134" s="73"/>
+      <c r="N134" s="74"/>
+      <c r="O134" s="75"/>
+      <c r="P134" s="73"/>
+      <c r="Q134" s="74"/>
+      <c r="R134" s="74"/>
+      <c r="S134" s="75"/>
       <c r="T134" s="11"/>
       <c r="U134" s="11"/>
       <c r="V134" s="11"/>
@@ -5176,23 +5075,23 @@
     <row r="135" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="69"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="68"/>
-      <c r="H135" s="69"/>
-      <c r="I135" s="67"/>
-      <c r="J135" s="68"/>
-      <c r="K135" s="68"/>
-      <c r="L135" s="69"/>
-      <c r="M135" s="67"/>
-      <c r="N135" s="68"/>
-      <c r="O135" s="69"/>
-      <c r="P135" s="67"/>
-      <c r="Q135" s="68"/>
-      <c r="R135" s="68"/>
-      <c r="S135" s="69"/>
+      <c r="C135" s="76"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="75"/>
+      <c r="F135" s="73"/>
+      <c r="G135" s="74"/>
+      <c r="H135" s="75"/>
+      <c r="I135" s="73"/>
+      <c r="J135" s="74"/>
+      <c r="K135" s="74"/>
+      <c r="L135" s="75"/>
+      <c r="M135" s="73"/>
+      <c r="N135" s="74"/>
+      <c r="O135" s="75"/>
+      <c r="P135" s="73"/>
+      <c r="Q135" s="74"/>
+      <c r="R135" s="74"/>
+      <c r="S135" s="75"/>
       <c r="T135" s="11"/>
       <c r="U135" s="11"/>
       <c r="V135" s="11"/>
@@ -5203,23 +5102,23 @@
     <row r="136" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="69"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="68"/>
-      <c r="H136" s="69"/>
-      <c r="I136" s="67"/>
-      <c r="J136" s="68"/>
-      <c r="K136" s="68"/>
-      <c r="L136" s="69"/>
-      <c r="M136" s="67"/>
-      <c r="N136" s="68"/>
-      <c r="O136" s="69"/>
-      <c r="P136" s="67"/>
-      <c r="Q136" s="68"/>
-      <c r="R136" s="68"/>
-      <c r="S136" s="69"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="75"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="74"/>
+      <c r="H136" s="75"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="74"/>
+      <c r="K136" s="74"/>
+      <c r="L136" s="75"/>
+      <c r="M136" s="73"/>
+      <c r="N136" s="74"/>
+      <c r="O136" s="75"/>
+      <c r="P136" s="73"/>
+      <c r="Q136" s="74"/>
+      <c r="R136" s="74"/>
+      <c r="S136" s="75"/>
       <c r="T136" s="11"/>
       <c r="U136" s="11"/>
       <c r="V136" s="11"/>
@@ -5230,23 +5129,23 @@
     <row r="137" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="69"/>
-      <c r="F137" s="67"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="69"/>
-      <c r="I137" s="67"/>
-      <c r="J137" s="68"/>
-      <c r="K137" s="68"/>
-      <c r="L137" s="69"/>
-      <c r="M137" s="67"/>
-      <c r="N137" s="68"/>
-      <c r="O137" s="69"/>
-      <c r="P137" s="67"/>
-      <c r="Q137" s="68"/>
-      <c r="R137" s="68"/>
-      <c r="S137" s="69"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="75"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="74"/>
+      <c r="H137" s="75"/>
+      <c r="I137" s="73"/>
+      <c r="J137" s="74"/>
+      <c r="K137" s="74"/>
+      <c r="L137" s="75"/>
+      <c r="M137" s="73"/>
+      <c r="N137" s="74"/>
+      <c r="O137" s="75"/>
+      <c r="P137" s="73"/>
+      <c r="Q137" s="74"/>
+      <c r="R137" s="74"/>
+      <c r="S137" s="75"/>
       <c r="T137" s="11"/>
       <c r="U137" s="11"/>
       <c r="V137" s="11"/>
@@ -5257,23 +5156,23 @@
     <row r="138" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="69"/>
-      <c r="F138" s="67"/>
-      <c r="G138" s="68"/>
-      <c r="H138" s="69"/>
-      <c r="I138" s="67"/>
-      <c r="J138" s="68"/>
-      <c r="K138" s="68"/>
-      <c r="L138" s="69"/>
-      <c r="M138" s="67"/>
-      <c r="N138" s="68"/>
-      <c r="O138" s="69"/>
-      <c r="P138" s="67"/>
-      <c r="Q138" s="68"/>
-      <c r="R138" s="68"/>
-      <c r="S138" s="69"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="75"/>
+      <c r="F138" s="73"/>
+      <c r="G138" s="74"/>
+      <c r="H138" s="75"/>
+      <c r="I138" s="73"/>
+      <c r="J138" s="74"/>
+      <c r="K138" s="74"/>
+      <c r="L138" s="75"/>
+      <c r="M138" s="73"/>
+      <c r="N138" s="74"/>
+      <c r="O138" s="75"/>
+      <c r="P138" s="73"/>
+      <c r="Q138" s="74"/>
+      <c r="R138" s="74"/>
+      <c r="S138" s="75"/>
       <c r="T138" s="11"/>
       <c r="U138" s="11"/>
       <c r="V138" s="11"/>
@@ -5284,23 +5183,23 @@
     <row r="139" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="69"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="68"/>
-      <c r="H139" s="69"/>
-      <c r="I139" s="67"/>
-      <c r="J139" s="68"/>
-      <c r="K139" s="68"/>
-      <c r="L139" s="69"/>
-      <c r="M139" s="67"/>
-      <c r="N139" s="68"/>
-      <c r="O139" s="69"/>
-      <c r="P139" s="67"/>
-      <c r="Q139" s="68"/>
-      <c r="R139" s="68"/>
-      <c r="S139" s="69"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="75"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="75"/>
+      <c r="I139" s="73"/>
+      <c r="J139" s="74"/>
+      <c r="K139" s="74"/>
+      <c r="L139" s="75"/>
+      <c r="M139" s="73"/>
+      <c r="N139" s="74"/>
+      <c r="O139" s="75"/>
+      <c r="P139" s="73"/>
+      <c r="Q139" s="74"/>
+      <c r="R139" s="74"/>
+      <c r="S139" s="75"/>
       <c r="T139" s="11"/>
       <c r="U139" s="11"/>
       <c r="V139" s="11"/>
@@ -5311,23 +5210,23 @@
     <row r="140" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="69"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="68"/>
-      <c r="H140" s="69"/>
-      <c r="I140" s="67"/>
-      <c r="J140" s="68"/>
-      <c r="K140" s="68"/>
-      <c r="L140" s="69"/>
-      <c r="M140" s="67"/>
-      <c r="N140" s="68"/>
-      <c r="O140" s="69"/>
-      <c r="P140" s="67"/>
-      <c r="Q140" s="68"/>
-      <c r="R140" s="68"/>
-      <c r="S140" s="69"/>
+      <c r="C140" s="76"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="75"/>
+      <c r="F140" s="73"/>
+      <c r="G140" s="74"/>
+      <c r="H140" s="75"/>
+      <c r="I140" s="73"/>
+      <c r="J140" s="74"/>
+      <c r="K140" s="74"/>
+      <c r="L140" s="75"/>
+      <c r="M140" s="73"/>
+      <c r="N140" s="74"/>
+      <c r="O140" s="75"/>
+      <c r="P140" s="73"/>
+      <c r="Q140" s="74"/>
+      <c r="R140" s="74"/>
+      <c r="S140" s="75"/>
       <c r="T140" s="11"/>
       <c r="U140" s="11"/>
       <c r="V140" s="11"/>
@@ -5338,23 +5237,23 @@
     <row r="141" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="69"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="68"/>
-      <c r="H141" s="69"/>
-      <c r="I141" s="67"/>
-      <c r="J141" s="68"/>
-      <c r="K141" s="68"/>
-      <c r="L141" s="69"/>
-      <c r="M141" s="67"/>
-      <c r="N141" s="68"/>
-      <c r="O141" s="69"/>
-      <c r="P141" s="67"/>
-      <c r="Q141" s="68"/>
-      <c r="R141" s="68"/>
-      <c r="S141" s="69"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="75"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="74"/>
+      <c r="H141" s="75"/>
+      <c r="I141" s="73"/>
+      <c r="J141" s="74"/>
+      <c r="K141" s="74"/>
+      <c r="L141" s="75"/>
+      <c r="M141" s="73"/>
+      <c r="N141" s="74"/>
+      <c r="O141" s="75"/>
+      <c r="P141" s="73"/>
+      <c r="Q141" s="74"/>
+      <c r="R141" s="74"/>
+      <c r="S141" s="75"/>
       <c r="T141" s="11"/>
       <c r="U141" s="11"/>
       <c r="V141" s="11"/>
@@ -5365,23 +5264,23 @@
     <row r="142" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="69"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="68"/>
-      <c r="H142" s="69"/>
-      <c r="I142" s="67"/>
-      <c r="J142" s="68"/>
-      <c r="K142" s="68"/>
-      <c r="L142" s="69"/>
-      <c r="M142" s="67"/>
-      <c r="N142" s="68"/>
-      <c r="O142" s="69"/>
-      <c r="P142" s="67"/>
-      <c r="Q142" s="68"/>
-      <c r="R142" s="68"/>
-      <c r="S142" s="69"/>
+      <c r="C142" s="76"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="75"/>
+      <c r="F142" s="73"/>
+      <c r="G142" s="74"/>
+      <c r="H142" s="75"/>
+      <c r="I142" s="73"/>
+      <c r="J142" s="74"/>
+      <c r="K142" s="74"/>
+      <c r="L142" s="75"/>
+      <c r="M142" s="73"/>
+      <c r="N142" s="74"/>
+      <c r="O142" s="75"/>
+      <c r="P142" s="73"/>
+      <c r="Q142" s="74"/>
+      <c r="R142" s="74"/>
+      <c r="S142" s="75"/>
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
       <c r="V142" s="11"/>
@@ -5392,23 +5291,23 @@
     <row r="143" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="69"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="68"/>
-      <c r="H143" s="69"/>
-      <c r="I143" s="67"/>
-      <c r="J143" s="68"/>
-      <c r="K143" s="68"/>
-      <c r="L143" s="69"/>
-      <c r="M143" s="67"/>
-      <c r="N143" s="68"/>
-      <c r="O143" s="69"/>
-      <c r="P143" s="67"/>
-      <c r="Q143" s="68"/>
-      <c r="R143" s="68"/>
-      <c r="S143" s="69"/>
+      <c r="C143" s="76"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="75"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="74"/>
+      <c r="H143" s="75"/>
+      <c r="I143" s="73"/>
+      <c r="J143" s="74"/>
+      <c r="K143" s="74"/>
+      <c r="L143" s="75"/>
+      <c r="M143" s="73"/>
+      <c r="N143" s="74"/>
+      <c r="O143" s="75"/>
+      <c r="P143" s="73"/>
+      <c r="Q143" s="74"/>
+      <c r="R143" s="74"/>
+      <c r="S143" s="75"/>
       <c r="T143" s="11"/>
       <c r="U143" s="11"/>
       <c r="V143" s="11"/>
@@ -5419,23 +5318,23 @@
     <row r="144" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="69"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="69"/>
-      <c r="I144" s="67"/>
-      <c r="J144" s="68"/>
-      <c r="K144" s="68"/>
-      <c r="L144" s="69"/>
-      <c r="M144" s="67"/>
-      <c r="N144" s="68"/>
-      <c r="O144" s="69"/>
-      <c r="P144" s="67"/>
-      <c r="Q144" s="68"/>
-      <c r="R144" s="68"/>
-      <c r="S144" s="69"/>
+      <c r="C144" s="76"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="75"/>
+      <c r="F144" s="73"/>
+      <c r="G144" s="74"/>
+      <c r="H144" s="75"/>
+      <c r="I144" s="73"/>
+      <c r="J144" s="74"/>
+      <c r="K144" s="74"/>
+      <c r="L144" s="75"/>
+      <c r="M144" s="73"/>
+      <c r="N144" s="74"/>
+      <c r="O144" s="75"/>
+      <c r="P144" s="73"/>
+      <c r="Q144" s="74"/>
+      <c r="R144" s="74"/>
+      <c r="S144" s="75"/>
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
       <c r="V144" s="11"/>
@@ -5446,23 +5345,23 @@
     <row r="145" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
-      <c r="C145" s="70"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="69"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="68"/>
-      <c r="H145" s="69"/>
-      <c r="I145" s="67"/>
-      <c r="J145" s="68"/>
-      <c r="K145" s="68"/>
-      <c r="L145" s="69"/>
-      <c r="M145" s="67"/>
-      <c r="N145" s="68"/>
-      <c r="O145" s="69"/>
-      <c r="P145" s="67"/>
-      <c r="Q145" s="68"/>
-      <c r="R145" s="68"/>
-      <c r="S145" s="69"/>
+      <c r="C145" s="76"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="75"/>
+      <c r="F145" s="73"/>
+      <c r="G145" s="74"/>
+      <c r="H145" s="75"/>
+      <c r="I145" s="73"/>
+      <c r="J145" s="74"/>
+      <c r="K145" s="74"/>
+      <c r="L145" s="75"/>
+      <c r="M145" s="73"/>
+      <c r="N145" s="74"/>
+      <c r="O145" s="75"/>
+      <c r="P145" s="73"/>
+      <c r="Q145" s="74"/>
+      <c r="R145" s="74"/>
+      <c r="S145" s="75"/>
       <c r="T145" s="11"/>
       <c r="U145" s="11"/>
       <c r="V145" s="11"/>
@@ -5473,23 +5372,23 @@
     <row r="146" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="69"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="68"/>
-      <c r="H146" s="69"/>
-      <c r="I146" s="67"/>
-      <c r="J146" s="68"/>
-      <c r="K146" s="68"/>
-      <c r="L146" s="69"/>
-      <c r="M146" s="67"/>
-      <c r="N146" s="68"/>
-      <c r="O146" s="69"/>
-      <c r="P146" s="67"/>
-      <c r="Q146" s="68"/>
-      <c r="R146" s="68"/>
-      <c r="S146" s="69"/>
+      <c r="C146" s="76"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="75"/>
+      <c r="F146" s="73"/>
+      <c r="G146" s="74"/>
+      <c r="H146" s="75"/>
+      <c r="I146" s="73"/>
+      <c r="J146" s="74"/>
+      <c r="K146" s="74"/>
+      <c r="L146" s="75"/>
+      <c r="M146" s="73"/>
+      <c r="N146" s="74"/>
+      <c r="O146" s="75"/>
+      <c r="P146" s="73"/>
+      <c r="Q146" s="74"/>
+      <c r="R146" s="74"/>
+      <c r="S146" s="75"/>
       <c r="T146" s="11"/>
       <c r="U146" s="11"/>
       <c r="V146" s="11"/>
@@ -5500,23 +5399,23 @@
     <row r="147" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
-      <c r="C147" s="70"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="69"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="68"/>
-      <c r="H147" s="69"/>
-      <c r="I147" s="67"/>
-      <c r="J147" s="68"/>
-      <c r="K147" s="68"/>
-      <c r="L147" s="69"/>
-      <c r="M147" s="67"/>
-      <c r="N147" s="68"/>
-      <c r="O147" s="69"/>
-      <c r="P147" s="67"/>
-      <c r="Q147" s="68"/>
-      <c r="R147" s="68"/>
-      <c r="S147" s="69"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="75"/>
+      <c r="F147" s="73"/>
+      <c r="G147" s="74"/>
+      <c r="H147" s="75"/>
+      <c r="I147" s="73"/>
+      <c r="J147" s="74"/>
+      <c r="K147" s="74"/>
+      <c r="L147" s="75"/>
+      <c r="M147" s="73"/>
+      <c r="N147" s="74"/>
+      <c r="O147" s="75"/>
+      <c r="P147" s="73"/>
+      <c r="Q147" s="74"/>
+      <c r="R147" s="74"/>
+      <c r="S147" s="75"/>
       <c r="T147" s="11"/>
       <c r="U147" s="11"/>
       <c r="V147" s="11"/>
@@ -5527,23 +5426,23 @@
     <row r="148" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
-      <c r="C148" s="70"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="69"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="68"/>
-      <c r="H148" s="69"/>
-      <c r="I148" s="67"/>
-      <c r="J148" s="68"/>
-      <c r="K148" s="68"/>
-      <c r="L148" s="69"/>
-      <c r="M148" s="67"/>
-      <c r="N148" s="68"/>
-      <c r="O148" s="69"/>
-      <c r="P148" s="67"/>
-      <c r="Q148" s="68"/>
-      <c r="R148" s="68"/>
-      <c r="S148" s="69"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="75"/>
+      <c r="F148" s="73"/>
+      <c r="G148" s="74"/>
+      <c r="H148" s="75"/>
+      <c r="I148" s="73"/>
+      <c r="J148" s="74"/>
+      <c r="K148" s="74"/>
+      <c r="L148" s="75"/>
+      <c r="M148" s="73"/>
+      <c r="N148" s="74"/>
+      <c r="O148" s="75"/>
+      <c r="P148" s="73"/>
+      <c r="Q148" s="74"/>
+      <c r="R148" s="74"/>
+      <c r="S148" s="75"/>
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
       <c r="V148" s="11"/>
@@ -5554,23 +5453,23 @@
     <row r="149" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="69"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="68"/>
-      <c r="H149" s="69"/>
-      <c r="I149" s="67"/>
-      <c r="J149" s="68"/>
-      <c r="K149" s="68"/>
-      <c r="L149" s="69"/>
-      <c r="M149" s="67"/>
-      <c r="N149" s="68"/>
-      <c r="O149" s="69"/>
-      <c r="P149" s="67"/>
-      <c r="Q149" s="68"/>
-      <c r="R149" s="68"/>
-      <c r="S149" s="69"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="75"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="74"/>
+      <c r="H149" s="75"/>
+      <c r="I149" s="73"/>
+      <c r="J149" s="74"/>
+      <c r="K149" s="74"/>
+      <c r="L149" s="75"/>
+      <c r="M149" s="73"/>
+      <c r="N149" s="74"/>
+      <c r="O149" s="75"/>
+      <c r="P149" s="73"/>
+      <c r="Q149" s="74"/>
+      <c r="R149" s="74"/>
+      <c r="S149" s="75"/>
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
       <c r="V149" s="11"/>
@@ -5581,23 +5480,23 @@
     <row r="150" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="68"/>
-      <c r="E150" s="69"/>
-      <c r="F150" s="67"/>
-      <c r="G150" s="68"/>
-      <c r="H150" s="69"/>
-      <c r="I150" s="67"/>
-      <c r="J150" s="68"/>
-      <c r="K150" s="68"/>
-      <c r="L150" s="69"/>
-      <c r="M150" s="67"/>
-      <c r="N150" s="68"/>
-      <c r="O150" s="69"/>
-      <c r="P150" s="67"/>
-      <c r="Q150" s="68"/>
-      <c r="R150" s="68"/>
-      <c r="S150" s="69"/>
+      <c r="C150" s="76"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="75"/>
+      <c r="F150" s="73"/>
+      <c r="G150" s="74"/>
+      <c r="H150" s="75"/>
+      <c r="I150" s="73"/>
+      <c r="J150" s="74"/>
+      <c r="K150" s="74"/>
+      <c r="L150" s="75"/>
+      <c r="M150" s="73"/>
+      <c r="N150" s="74"/>
+      <c r="O150" s="75"/>
+      <c r="P150" s="73"/>
+      <c r="Q150" s="74"/>
+      <c r="R150" s="74"/>
+      <c r="S150" s="75"/>
       <c r="T150" s="11"/>
       <c r="U150" s="11"/>
       <c r="V150" s="11"/>
@@ -5608,23 +5507,23 @@
     <row r="151" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="69"/>
-      <c r="F151" s="67"/>
-      <c r="G151" s="68"/>
-      <c r="H151" s="69"/>
-      <c r="I151" s="67"/>
-      <c r="J151" s="68"/>
-      <c r="K151" s="68"/>
-      <c r="L151" s="69"/>
-      <c r="M151" s="67"/>
-      <c r="N151" s="68"/>
-      <c r="O151" s="69"/>
-      <c r="P151" s="67"/>
-      <c r="Q151" s="68"/>
-      <c r="R151" s="68"/>
-      <c r="S151" s="69"/>
+      <c r="C151" s="76"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="75"/>
+      <c r="F151" s="73"/>
+      <c r="G151" s="74"/>
+      <c r="H151" s="75"/>
+      <c r="I151" s="73"/>
+      <c r="J151" s="74"/>
+      <c r="K151" s="74"/>
+      <c r="L151" s="75"/>
+      <c r="M151" s="73"/>
+      <c r="N151" s="74"/>
+      <c r="O151" s="75"/>
+      <c r="P151" s="73"/>
+      <c r="Q151" s="74"/>
+      <c r="R151" s="74"/>
+      <c r="S151" s="75"/>
       <c r="T151" s="11"/>
       <c r="U151" s="11"/>
       <c r="V151" s="11"/>
@@ -5635,23 +5534,23 @@
     <row r="152" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="69"/>
-      <c r="F152" s="67"/>
-      <c r="G152" s="68"/>
-      <c r="H152" s="69"/>
-      <c r="I152" s="67"/>
-      <c r="J152" s="68"/>
-      <c r="K152" s="68"/>
-      <c r="L152" s="69"/>
-      <c r="M152" s="67"/>
-      <c r="N152" s="68"/>
-      <c r="O152" s="69"/>
-      <c r="P152" s="67"/>
-      <c r="Q152" s="68"/>
-      <c r="R152" s="68"/>
-      <c r="S152" s="69"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="75"/>
+      <c r="F152" s="73"/>
+      <c r="G152" s="74"/>
+      <c r="H152" s="75"/>
+      <c r="I152" s="73"/>
+      <c r="J152" s="74"/>
+      <c r="K152" s="74"/>
+      <c r="L152" s="75"/>
+      <c r="M152" s="73"/>
+      <c r="N152" s="74"/>
+      <c r="O152" s="75"/>
+      <c r="P152" s="73"/>
+      <c r="Q152" s="74"/>
+      <c r="R152" s="74"/>
+      <c r="S152" s="75"/>
       <c r="T152" s="11"/>
       <c r="U152" s="11"/>
       <c r="V152" s="11"/>
@@ -5662,23 +5561,23 @@
     <row r="153" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
-      <c r="C153" s="70"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="69"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="68"/>
-      <c r="H153" s="69"/>
-      <c r="I153" s="67"/>
-      <c r="J153" s="68"/>
-      <c r="K153" s="68"/>
-      <c r="L153" s="69"/>
-      <c r="M153" s="67"/>
-      <c r="N153" s="68"/>
-      <c r="O153" s="69"/>
-      <c r="P153" s="67"/>
-      <c r="Q153" s="68"/>
-      <c r="R153" s="68"/>
-      <c r="S153" s="69"/>
+      <c r="C153" s="76"/>
+      <c r="D153" s="74"/>
+      <c r="E153" s="75"/>
+      <c r="F153" s="73"/>
+      <c r="G153" s="74"/>
+      <c r="H153" s="75"/>
+      <c r="I153" s="73"/>
+      <c r="J153" s="74"/>
+      <c r="K153" s="74"/>
+      <c r="L153" s="75"/>
+      <c r="M153" s="73"/>
+      <c r="N153" s="74"/>
+      <c r="O153" s="75"/>
+      <c r="P153" s="73"/>
+      <c r="Q153" s="74"/>
+      <c r="R153" s="74"/>
+      <c r="S153" s="75"/>
       <c r="T153" s="11"/>
       <c r="U153" s="11"/>
       <c r="V153" s="11"/>
@@ -5689,23 +5588,23 @@
     <row r="154" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
-      <c r="C154" s="70"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="69"/>
-      <c r="F154" s="67"/>
-      <c r="G154" s="68"/>
-      <c r="H154" s="69"/>
-      <c r="I154" s="67"/>
-      <c r="J154" s="68"/>
-      <c r="K154" s="68"/>
-      <c r="L154" s="69"/>
-      <c r="M154" s="67"/>
-      <c r="N154" s="68"/>
-      <c r="O154" s="69"/>
-      <c r="P154" s="67"/>
-      <c r="Q154" s="68"/>
-      <c r="R154" s="68"/>
-      <c r="S154" s="69"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="75"/>
+      <c r="F154" s="73"/>
+      <c r="G154" s="74"/>
+      <c r="H154" s="75"/>
+      <c r="I154" s="73"/>
+      <c r="J154" s="74"/>
+      <c r="K154" s="74"/>
+      <c r="L154" s="75"/>
+      <c r="M154" s="73"/>
+      <c r="N154" s="74"/>
+      <c r="O154" s="75"/>
+      <c r="P154" s="73"/>
+      <c r="Q154" s="74"/>
+      <c r="R154" s="74"/>
+      <c r="S154" s="75"/>
       <c r="T154" s="11"/>
       <c r="U154" s="11"/>
       <c r="V154" s="11"/>
@@ -5716,23 +5615,23 @@
     <row r="155" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="70"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="69"/>
-      <c r="F155" s="67"/>
-      <c r="G155" s="68"/>
-      <c r="H155" s="69"/>
-      <c r="I155" s="67"/>
-      <c r="J155" s="68"/>
-      <c r="K155" s="68"/>
-      <c r="L155" s="69"/>
-      <c r="M155" s="67"/>
-      <c r="N155" s="68"/>
-      <c r="O155" s="69"/>
-      <c r="P155" s="67"/>
-      <c r="Q155" s="68"/>
-      <c r="R155" s="68"/>
-      <c r="S155" s="69"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="75"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="74"/>
+      <c r="H155" s="75"/>
+      <c r="I155" s="73"/>
+      <c r="J155" s="74"/>
+      <c r="K155" s="74"/>
+      <c r="L155" s="75"/>
+      <c r="M155" s="73"/>
+      <c r="N155" s="74"/>
+      <c r="O155" s="75"/>
+      <c r="P155" s="73"/>
+      <c r="Q155" s="74"/>
+      <c r="R155" s="74"/>
+      <c r="S155" s="75"/>
       <c r="T155" s="11"/>
       <c r="U155" s="11"/>
       <c r="V155" s="11"/>
@@ -5743,23 +5642,23 @@
     <row r="156" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
-      <c r="C156" s="70"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="69"/>
-      <c r="F156" s="67"/>
-      <c r="G156" s="68"/>
-      <c r="H156" s="69"/>
-      <c r="I156" s="67"/>
-      <c r="J156" s="68"/>
-      <c r="K156" s="68"/>
-      <c r="L156" s="69"/>
-      <c r="M156" s="67"/>
-      <c r="N156" s="68"/>
-      <c r="O156" s="69"/>
-      <c r="P156" s="67"/>
-      <c r="Q156" s="68"/>
-      <c r="R156" s="68"/>
-      <c r="S156" s="69"/>
+      <c r="C156" s="76"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="75"/>
+      <c r="F156" s="73"/>
+      <c r="G156" s="74"/>
+      <c r="H156" s="75"/>
+      <c r="I156" s="73"/>
+      <c r="J156" s="74"/>
+      <c r="K156" s="74"/>
+      <c r="L156" s="75"/>
+      <c r="M156" s="73"/>
+      <c r="N156" s="74"/>
+      <c r="O156" s="75"/>
+      <c r="P156" s="73"/>
+      <c r="Q156" s="74"/>
+      <c r="R156" s="74"/>
+      <c r="S156" s="75"/>
       <c r="T156" s="11"/>
       <c r="U156" s="11"/>
       <c r="V156" s="11"/>
@@ -5770,23 +5669,23 @@
     <row r="157" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
-      <c r="C157" s="70"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="69"/>
-      <c r="F157" s="67"/>
-      <c r="G157" s="68"/>
-      <c r="H157" s="69"/>
-      <c r="I157" s="67"/>
-      <c r="J157" s="68"/>
-      <c r="K157" s="68"/>
-      <c r="L157" s="69"/>
-      <c r="M157" s="67"/>
-      <c r="N157" s="68"/>
-      <c r="O157" s="69"/>
-      <c r="P157" s="67"/>
-      <c r="Q157" s="68"/>
-      <c r="R157" s="68"/>
-      <c r="S157" s="69"/>
+      <c r="C157" s="76"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="75"/>
+      <c r="F157" s="73"/>
+      <c r="G157" s="74"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="73"/>
+      <c r="J157" s="74"/>
+      <c r="K157" s="74"/>
+      <c r="L157" s="75"/>
+      <c r="M157" s="73"/>
+      <c r="N157" s="74"/>
+      <c r="O157" s="75"/>
+      <c r="P157" s="73"/>
+      <c r="Q157" s="74"/>
+      <c r="R157" s="74"/>
+      <c r="S157" s="75"/>
       <c r="T157" s="11"/>
       <c r="U157" s="11"/>
       <c r="V157" s="11"/>
@@ -5797,23 +5696,23 @@
     <row r="158" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
-      <c r="C158" s="70"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="69"/>
-      <c r="F158" s="67"/>
-      <c r="G158" s="68"/>
-      <c r="H158" s="69"/>
-      <c r="I158" s="67"/>
-      <c r="J158" s="68"/>
-      <c r="K158" s="68"/>
-      <c r="L158" s="69"/>
-      <c r="M158" s="67"/>
-      <c r="N158" s="68"/>
-      <c r="O158" s="69"/>
-      <c r="P158" s="67"/>
-      <c r="Q158" s="68"/>
-      <c r="R158" s="68"/>
-      <c r="S158" s="69"/>
+      <c r="C158" s="76"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="73"/>
+      <c r="G158" s="74"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="73"/>
+      <c r="J158" s="74"/>
+      <c r="K158" s="74"/>
+      <c r="L158" s="75"/>
+      <c r="M158" s="73"/>
+      <c r="N158" s="74"/>
+      <c r="O158" s="75"/>
+      <c r="P158" s="73"/>
+      <c r="Q158" s="74"/>
+      <c r="R158" s="74"/>
+      <c r="S158" s="75"/>
       <c r="T158" s="11"/>
       <c r="U158" s="11"/>
       <c r="V158" s="11"/>
@@ -5824,23 +5723,23 @@
     <row r="159" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
-      <c r="C159" s="70"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="69"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="68"/>
-      <c r="H159" s="69"/>
-      <c r="I159" s="67"/>
-      <c r="J159" s="68"/>
-      <c r="K159" s="68"/>
-      <c r="L159" s="69"/>
-      <c r="M159" s="67"/>
-      <c r="N159" s="68"/>
-      <c r="O159" s="69"/>
-      <c r="P159" s="67"/>
-      <c r="Q159" s="68"/>
-      <c r="R159" s="68"/>
-      <c r="S159" s="69"/>
+      <c r="C159" s="76"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="75"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="74"/>
+      <c r="H159" s="75"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="74"/>
+      <c r="K159" s="74"/>
+      <c r="L159" s="75"/>
+      <c r="M159" s="73"/>
+      <c r="N159" s="74"/>
+      <c r="O159" s="75"/>
+      <c r="P159" s="73"/>
+      <c r="Q159" s="74"/>
+      <c r="R159" s="74"/>
+      <c r="S159" s="75"/>
       <c r="T159" s="11"/>
       <c r="U159" s="11"/>
       <c r="V159" s="11"/>
@@ -5851,23 +5750,23 @@
     <row r="160" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
-      <c r="C160" s="70"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="69"/>
-      <c r="F160" s="67"/>
-      <c r="G160" s="68"/>
-      <c r="H160" s="69"/>
-      <c r="I160" s="67"/>
-      <c r="J160" s="68"/>
-      <c r="K160" s="68"/>
-      <c r="L160" s="69"/>
-      <c r="M160" s="67"/>
-      <c r="N160" s="68"/>
-      <c r="O160" s="69"/>
-      <c r="P160" s="67"/>
-      <c r="Q160" s="68"/>
-      <c r="R160" s="68"/>
-      <c r="S160" s="69"/>
+      <c r="C160" s="76"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="75"/>
+      <c r="F160" s="73"/>
+      <c r="G160" s="74"/>
+      <c r="H160" s="75"/>
+      <c r="I160" s="73"/>
+      <c r="J160" s="74"/>
+      <c r="K160" s="74"/>
+      <c r="L160" s="75"/>
+      <c r="M160" s="73"/>
+      <c r="N160" s="74"/>
+      <c r="O160" s="75"/>
+      <c r="P160" s="73"/>
+      <c r="Q160" s="74"/>
+      <c r="R160" s="74"/>
+      <c r="S160" s="75"/>
       <c r="T160" s="11"/>
       <c r="U160" s="11"/>
       <c r="V160" s="11"/>
@@ -5878,23 +5777,23 @@
     <row r="161" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
-      <c r="C161" s="70"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="69"/>
-      <c r="F161" s="67"/>
-      <c r="G161" s="68"/>
-      <c r="H161" s="69"/>
-      <c r="I161" s="67"/>
-      <c r="J161" s="68"/>
-      <c r="K161" s="68"/>
-      <c r="L161" s="69"/>
-      <c r="M161" s="67"/>
-      <c r="N161" s="68"/>
-      <c r="O161" s="69"/>
-      <c r="P161" s="67"/>
-      <c r="Q161" s="68"/>
-      <c r="R161" s="68"/>
-      <c r="S161" s="69"/>
+      <c r="C161" s="76"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="75"/>
+      <c r="F161" s="73"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="75"/>
+      <c r="I161" s="73"/>
+      <c r="J161" s="74"/>
+      <c r="K161" s="74"/>
+      <c r="L161" s="75"/>
+      <c r="M161" s="73"/>
+      <c r="N161" s="74"/>
+      <c r="O161" s="75"/>
+      <c r="P161" s="73"/>
+      <c r="Q161" s="74"/>
+      <c r="R161" s="74"/>
+      <c r="S161" s="75"/>
       <c r="T161" s="11"/>
       <c r="U161" s="11"/>
       <c r="V161" s="11"/>
@@ -5905,23 +5804,23 @@
     <row r="162" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
-      <c r="C162" s="70"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="69"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="68"/>
-      <c r="H162" s="69"/>
-      <c r="I162" s="67"/>
-      <c r="J162" s="68"/>
-      <c r="K162" s="68"/>
-      <c r="L162" s="69"/>
-      <c r="M162" s="67"/>
-      <c r="N162" s="68"/>
-      <c r="O162" s="69"/>
-      <c r="P162" s="67"/>
-      <c r="Q162" s="68"/>
-      <c r="R162" s="68"/>
-      <c r="S162" s="69"/>
+      <c r="C162" s="76"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="75"/>
+      <c r="F162" s="73"/>
+      <c r="G162" s="74"/>
+      <c r="H162" s="75"/>
+      <c r="I162" s="73"/>
+      <c r="J162" s="74"/>
+      <c r="K162" s="74"/>
+      <c r="L162" s="75"/>
+      <c r="M162" s="73"/>
+      <c r="N162" s="74"/>
+      <c r="O162" s="75"/>
+      <c r="P162" s="73"/>
+      <c r="Q162" s="74"/>
+      <c r="R162" s="74"/>
+      <c r="S162" s="75"/>
       <c r="T162" s="11"/>
       <c r="U162" s="11"/>
       <c r="V162" s="11"/>
@@ -5932,23 +5831,23 @@
     <row r="163" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
-      <c r="C163" s="70"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="69"/>
-      <c r="F163" s="67"/>
-      <c r="G163" s="68"/>
-      <c r="H163" s="69"/>
-      <c r="I163" s="67"/>
-      <c r="J163" s="68"/>
-      <c r="K163" s="68"/>
-      <c r="L163" s="69"/>
-      <c r="M163" s="67"/>
-      <c r="N163" s="68"/>
-      <c r="O163" s="69"/>
-      <c r="P163" s="67"/>
-      <c r="Q163" s="68"/>
-      <c r="R163" s="68"/>
-      <c r="S163" s="69"/>
+      <c r="C163" s="76"/>
+      <c r="D163" s="74"/>
+      <c r="E163" s="75"/>
+      <c r="F163" s="73"/>
+      <c r="G163" s="74"/>
+      <c r="H163" s="75"/>
+      <c r="I163" s="73"/>
+      <c r="J163" s="74"/>
+      <c r="K163" s="74"/>
+      <c r="L163" s="75"/>
+      <c r="M163" s="73"/>
+      <c r="N163" s="74"/>
+      <c r="O163" s="75"/>
+      <c r="P163" s="73"/>
+      <c r="Q163" s="74"/>
+      <c r="R163" s="74"/>
+      <c r="S163" s="75"/>
       <c r="T163" s="11"/>
       <c r="U163" s="11"/>
       <c r="V163" s="11"/>
@@ -5959,23 +5858,23 @@
     <row r="164" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
-      <c r="C164" s="70"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="69"/>
-      <c r="F164" s="67"/>
-      <c r="G164" s="68"/>
-      <c r="H164" s="69"/>
-      <c r="I164" s="67"/>
-      <c r="J164" s="68"/>
-      <c r="K164" s="68"/>
-      <c r="L164" s="69"/>
-      <c r="M164" s="67"/>
-      <c r="N164" s="68"/>
-      <c r="O164" s="69"/>
-      <c r="P164" s="67"/>
-      <c r="Q164" s="68"/>
-      <c r="R164" s="68"/>
-      <c r="S164" s="69"/>
+      <c r="C164" s="76"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="75"/>
+      <c r="F164" s="73"/>
+      <c r="G164" s="74"/>
+      <c r="H164" s="75"/>
+      <c r="I164" s="73"/>
+      <c r="J164" s="74"/>
+      <c r="K164" s="74"/>
+      <c r="L164" s="75"/>
+      <c r="M164" s="73"/>
+      <c r="N164" s="74"/>
+      <c r="O164" s="75"/>
+      <c r="P164" s="73"/>
+      <c r="Q164" s="74"/>
+      <c r="R164" s="74"/>
+      <c r="S164" s="75"/>
       <c r="T164" s="11"/>
       <c r="U164" s="11"/>
       <c r="V164" s="11"/>
@@ -5986,23 +5885,23 @@
     <row r="165" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
-      <c r="C165" s="70"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="69"/>
-      <c r="F165" s="67"/>
-      <c r="G165" s="68"/>
-      <c r="H165" s="69"/>
-      <c r="I165" s="67"/>
-      <c r="J165" s="68"/>
-      <c r="K165" s="68"/>
-      <c r="L165" s="69"/>
-      <c r="M165" s="67"/>
-      <c r="N165" s="68"/>
-      <c r="O165" s="69"/>
-      <c r="P165" s="67"/>
-      <c r="Q165" s="68"/>
-      <c r="R165" s="68"/>
-      <c r="S165" s="69"/>
+      <c r="C165" s="76"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="75"/>
+      <c r="F165" s="73"/>
+      <c r="G165" s="74"/>
+      <c r="H165" s="75"/>
+      <c r="I165" s="73"/>
+      <c r="J165" s="74"/>
+      <c r="K165" s="74"/>
+      <c r="L165" s="75"/>
+      <c r="M165" s="73"/>
+      <c r="N165" s="74"/>
+      <c r="O165" s="75"/>
+      <c r="P165" s="73"/>
+      <c r="Q165" s="74"/>
+      <c r="R165" s="74"/>
+      <c r="S165" s="75"/>
       <c r="T165" s="11"/>
       <c r="U165" s="11"/>
       <c r="V165" s="11"/>
@@ -6013,23 +5912,23 @@
     <row r="166" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
-      <c r="C166" s="70"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="69"/>
-      <c r="F166" s="67"/>
-      <c r="G166" s="68"/>
-      <c r="H166" s="69"/>
-      <c r="I166" s="67"/>
-      <c r="J166" s="68"/>
-      <c r="K166" s="68"/>
-      <c r="L166" s="69"/>
-      <c r="M166" s="67"/>
-      <c r="N166" s="68"/>
-      <c r="O166" s="69"/>
-      <c r="P166" s="67"/>
-      <c r="Q166" s="68"/>
-      <c r="R166" s="68"/>
-      <c r="S166" s="69"/>
+      <c r="C166" s="76"/>
+      <c r="D166" s="74"/>
+      <c r="E166" s="75"/>
+      <c r="F166" s="73"/>
+      <c r="G166" s="74"/>
+      <c r="H166" s="75"/>
+      <c r="I166" s="73"/>
+      <c r="J166" s="74"/>
+      <c r="K166" s="74"/>
+      <c r="L166" s="75"/>
+      <c r="M166" s="73"/>
+      <c r="N166" s="74"/>
+      <c r="O166" s="75"/>
+      <c r="P166" s="73"/>
+      <c r="Q166" s="74"/>
+      <c r="R166" s="74"/>
+      <c r="S166" s="75"/>
       <c r="T166" s="11"/>
       <c r="U166" s="11"/>
       <c r="V166" s="11"/>
@@ -6040,23 +5939,23 @@
     <row r="167" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
-      <c r="C167" s="70"/>
-      <c r="D167" s="68"/>
-      <c r="E167" s="69"/>
-      <c r="F167" s="67"/>
-      <c r="G167" s="68"/>
-      <c r="H167" s="69"/>
-      <c r="I167" s="67"/>
-      <c r="J167" s="68"/>
-      <c r="K167" s="68"/>
-      <c r="L167" s="69"/>
-      <c r="M167" s="67"/>
-      <c r="N167" s="68"/>
-      <c r="O167" s="69"/>
-      <c r="P167" s="67"/>
-      <c r="Q167" s="68"/>
-      <c r="R167" s="68"/>
-      <c r="S167" s="69"/>
+      <c r="C167" s="76"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="75"/>
+      <c r="F167" s="73"/>
+      <c r="G167" s="74"/>
+      <c r="H167" s="75"/>
+      <c r="I167" s="73"/>
+      <c r="J167" s="74"/>
+      <c r="K167" s="74"/>
+      <c r="L167" s="75"/>
+      <c r="M167" s="73"/>
+      <c r="N167" s="74"/>
+      <c r="O167" s="75"/>
+      <c r="P167" s="73"/>
+      <c r="Q167" s="74"/>
+      <c r="R167" s="74"/>
+      <c r="S167" s="75"/>
       <c r="T167" s="11"/>
       <c r="U167" s="11"/>
       <c r="V167" s="11"/>
@@ -6067,23 +5966,23 @@
     <row r="168" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
-      <c r="C168" s="70"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="69"/>
-      <c r="F168" s="67"/>
-      <c r="G168" s="68"/>
-      <c r="H168" s="69"/>
-      <c r="I168" s="67"/>
-      <c r="J168" s="68"/>
-      <c r="K168" s="68"/>
-      <c r="L168" s="69"/>
-      <c r="M168" s="67"/>
-      <c r="N168" s="68"/>
-      <c r="O168" s="69"/>
-      <c r="P168" s="67"/>
-      <c r="Q168" s="68"/>
-      <c r="R168" s="68"/>
-      <c r="S168" s="69"/>
+      <c r="C168" s="76"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="75"/>
+      <c r="F168" s="73"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="75"/>
+      <c r="I168" s="73"/>
+      <c r="J168" s="74"/>
+      <c r="K168" s="74"/>
+      <c r="L168" s="75"/>
+      <c r="M168" s="73"/>
+      <c r="N168" s="74"/>
+      <c r="O168" s="75"/>
+      <c r="P168" s="73"/>
+      <c r="Q168" s="74"/>
+      <c r="R168" s="74"/>
+      <c r="S168" s="75"/>
       <c r="T168" s="11"/>
       <c r="U168" s="11"/>
       <c r="V168" s="11"/>
@@ -6094,23 +5993,23 @@
     <row r="169" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
-      <c r="C169" s="70"/>
-      <c r="D169" s="68"/>
-      <c r="E169" s="69"/>
-      <c r="F169" s="67"/>
-      <c r="G169" s="68"/>
-      <c r="H169" s="69"/>
-      <c r="I169" s="67"/>
-      <c r="J169" s="68"/>
-      <c r="K169" s="68"/>
-      <c r="L169" s="69"/>
-      <c r="M169" s="67"/>
-      <c r="N169" s="68"/>
-      <c r="O169" s="69"/>
-      <c r="P169" s="67"/>
-      <c r="Q169" s="68"/>
-      <c r="R169" s="68"/>
-      <c r="S169" s="69"/>
+      <c r="C169" s="76"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="75"/>
+      <c r="F169" s="73"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="75"/>
+      <c r="I169" s="73"/>
+      <c r="J169" s="74"/>
+      <c r="K169" s="74"/>
+      <c r="L169" s="75"/>
+      <c r="M169" s="73"/>
+      <c r="N169" s="74"/>
+      <c r="O169" s="75"/>
+      <c r="P169" s="73"/>
+      <c r="Q169" s="74"/>
+      <c r="R169" s="74"/>
+      <c r="S169" s="75"/>
       <c r="T169" s="11"/>
       <c r="U169" s="11"/>
       <c r="V169" s="11"/>
@@ -6121,23 +6020,23 @@
     <row r="170" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="69"/>
-      <c r="F170" s="67"/>
-      <c r="G170" s="68"/>
-      <c r="H170" s="69"/>
-      <c r="I170" s="67"/>
-      <c r="J170" s="68"/>
-      <c r="K170" s="68"/>
-      <c r="L170" s="69"/>
-      <c r="M170" s="67"/>
-      <c r="N170" s="68"/>
-      <c r="O170" s="69"/>
-      <c r="P170" s="67"/>
-      <c r="Q170" s="68"/>
-      <c r="R170" s="68"/>
-      <c r="S170" s="69"/>
+      <c r="C170" s="76"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="75"/>
+      <c r="F170" s="73"/>
+      <c r="G170" s="74"/>
+      <c r="H170" s="75"/>
+      <c r="I170" s="73"/>
+      <c r="J170" s="74"/>
+      <c r="K170" s="74"/>
+      <c r="L170" s="75"/>
+      <c r="M170" s="73"/>
+      <c r="N170" s="74"/>
+      <c r="O170" s="75"/>
+      <c r="P170" s="73"/>
+      <c r="Q170" s="74"/>
+      <c r="R170" s="74"/>
+      <c r="S170" s="75"/>
       <c r="T170" s="11"/>
       <c r="U170" s="11"/>
       <c r="V170" s="11"/>
@@ -6148,23 +6047,23 @@
     <row r="171" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
-      <c r="C171" s="70"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="69"/>
-      <c r="F171" s="67"/>
-      <c r="G171" s="68"/>
-      <c r="H171" s="69"/>
-      <c r="I171" s="67"/>
-      <c r="J171" s="68"/>
-      <c r="K171" s="68"/>
-      <c r="L171" s="69"/>
-      <c r="M171" s="67"/>
-      <c r="N171" s="68"/>
-      <c r="O171" s="69"/>
-      <c r="P171" s="67"/>
-      <c r="Q171" s="68"/>
-      <c r="R171" s="68"/>
-      <c r="S171" s="69"/>
+      <c r="C171" s="76"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="75"/>
+      <c r="F171" s="73"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="75"/>
+      <c r="I171" s="73"/>
+      <c r="J171" s="74"/>
+      <c r="K171" s="74"/>
+      <c r="L171" s="75"/>
+      <c r="M171" s="73"/>
+      <c r="N171" s="74"/>
+      <c r="O171" s="75"/>
+      <c r="P171" s="73"/>
+      <c r="Q171" s="74"/>
+      <c r="R171" s="74"/>
+      <c r="S171" s="75"/>
       <c r="T171" s="11"/>
       <c r="U171" s="11"/>
       <c r="V171" s="11"/>
@@ -6175,23 +6074,23 @@
     <row r="172" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
-      <c r="C172" s="70"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="69"/>
-      <c r="F172" s="67"/>
-      <c r="G172" s="68"/>
-      <c r="H172" s="69"/>
-      <c r="I172" s="67"/>
-      <c r="J172" s="68"/>
-      <c r="K172" s="68"/>
-      <c r="L172" s="69"/>
-      <c r="M172" s="67"/>
-      <c r="N172" s="68"/>
-      <c r="O172" s="69"/>
-      <c r="P172" s="67"/>
-      <c r="Q172" s="68"/>
-      <c r="R172" s="68"/>
-      <c r="S172" s="69"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="73"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="75"/>
+      <c r="I172" s="73"/>
+      <c r="J172" s="74"/>
+      <c r="K172" s="74"/>
+      <c r="L172" s="75"/>
+      <c r="M172" s="73"/>
+      <c r="N172" s="74"/>
+      <c r="O172" s="75"/>
+      <c r="P172" s="73"/>
+      <c r="Q172" s="74"/>
+      <c r="R172" s="74"/>
+      <c r="S172" s="75"/>
       <c r="T172" s="11"/>
       <c r="U172" s="11"/>
       <c r="V172" s="11"/>
@@ -6202,23 +6101,23 @@
     <row r="173" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
-      <c r="C173" s="70"/>
-      <c r="D173" s="68"/>
-      <c r="E173" s="69"/>
-      <c r="F173" s="67"/>
-      <c r="G173" s="68"/>
-      <c r="H173" s="69"/>
-      <c r="I173" s="67"/>
-      <c r="J173" s="68"/>
-      <c r="K173" s="68"/>
-      <c r="L173" s="69"/>
-      <c r="M173" s="67"/>
-      <c r="N173" s="68"/>
-      <c r="O173" s="69"/>
-      <c r="P173" s="67"/>
-      <c r="Q173" s="68"/>
-      <c r="R173" s="68"/>
-      <c r="S173" s="69"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="75"/>
+      <c r="F173" s="73"/>
+      <c r="G173" s="74"/>
+      <c r="H173" s="75"/>
+      <c r="I173" s="73"/>
+      <c r="J173" s="74"/>
+      <c r="K173" s="74"/>
+      <c r="L173" s="75"/>
+      <c r="M173" s="73"/>
+      <c r="N173" s="74"/>
+      <c r="O173" s="75"/>
+      <c r="P173" s="73"/>
+      <c r="Q173" s="74"/>
+      <c r="R173" s="74"/>
+      <c r="S173" s="75"/>
       <c r="T173" s="11"/>
       <c r="U173" s="11"/>
       <c r="V173" s="11"/>
@@ -6229,23 +6128,23 @@
     <row r="174" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
-      <c r="C174" s="70"/>
-      <c r="D174" s="68"/>
-      <c r="E174" s="69"/>
-      <c r="F174" s="67"/>
-      <c r="G174" s="68"/>
-      <c r="H174" s="69"/>
-      <c r="I174" s="67"/>
-      <c r="J174" s="68"/>
-      <c r="K174" s="68"/>
-      <c r="L174" s="69"/>
-      <c r="M174" s="67"/>
-      <c r="N174" s="68"/>
-      <c r="O174" s="69"/>
-      <c r="P174" s="67"/>
-      <c r="Q174" s="68"/>
-      <c r="R174" s="68"/>
-      <c r="S174" s="69"/>
+      <c r="C174" s="76"/>
+      <c r="D174" s="74"/>
+      <c r="E174" s="75"/>
+      <c r="F174" s="73"/>
+      <c r="G174" s="74"/>
+      <c r="H174" s="75"/>
+      <c r="I174" s="73"/>
+      <c r="J174" s="74"/>
+      <c r="K174" s="74"/>
+      <c r="L174" s="75"/>
+      <c r="M174" s="73"/>
+      <c r="N174" s="74"/>
+      <c r="O174" s="75"/>
+      <c r="P174" s="73"/>
+      <c r="Q174" s="74"/>
+      <c r="R174" s="74"/>
+      <c r="S174" s="75"/>
       <c r="T174" s="11"/>
       <c r="U174" s="11"/>
       <c r="V174" s="11"/>
@@ -6256,23 +6155,23 @@
     <row r="175" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
-      <c r="C175" s="70"/>
-      <c r="D175" s="68"/>
-      <c r="E175" s="69"/>
-      <c r="F175" s="67"/>
-      <c r="G175" s="68"/>
-      <c r="H175" s="69"/>
-      <c r="I175" s="67"/>
-      <c r="J175" s="68"/>
-      <c r="K175" s="68"/>
-      <c r="L175" s="69"/>
-      <c r="M175" s="67"/>
-      <c r="N175" s="68"/>
-      <c r="O175" s="69"/>
-      <c r="P175" s="67"/>
-      <c r="Q175" s="68"/>
-      <c r="R175" s="68"/>
-      <c r="S175" s="69"/>
+      <c r="C175" s="76"/>
+      <c r="D175" s="74"/>
+      <c r="E175" s="75"/>
+      <c r="F175" s="73"/>
+      <c r="G175" s="74"/>
+      <c r="H175" s="75"/>
+      <c r="I175" s="73"/>
+      <c r="J175" s="74"/>
+      <c r="K175" s="74"/>
+      <c r="L175" s="75"/>
+      <c r="M175" s="73"/>
+      <c r="N175" s="74"/>
+      <c r="O175" s="75"/>
+      <c r="P175" s="73"/>
+      <c r="Q175" s="74"/>
+      <c r="R175" s="74"/>
+      <c r="S175" s="75"/>
       <c r="T175" s="11"/>
       <c r="U175" s="11"/>
       <c r="V175" s="11"/>
@@ -6283,23 +6182,23 @@
     <row r="176" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
-      <c r="C176" s="70"/>
-      <c r="D176" s="68"/>
-      <c r="E176" s="69"/>
-      <c r="F176" s="67"/>
-      <c r="G176" s="68"/>
-      <c r="H176" s="69"/>
-      <c r="I176" s="67"/>
-      <c r="J176" s="68"/>
-      <c r="K176" s="68"/>
-      <c r="L176" s="69"/>
-      <c r="M176" s="67"/>
-      <c r="N176" s="68"/>
-      <c r="O176" s="69"/>
-      <c r="P176" s="67"/>
-      <c r="Q176" s="68"/>
-      <c r="R176" s="68"/>
-      <c r="S176" s="69"/>
+      <c r="C176" s="76"/>
+      <c r="D176" s="74"/>
+      <c r="E176" s="75"/>
+      <c r="F176" s="73"/>
+      <c r="G176" s="74"/>
+      <c r="H176" s="75"/>
+      <c r="I176" s="73"/>
+      <c r="J176" s="74"/>
+      <c r="K176" s="74"/>
+      <c r="L176" s="75"/>
+      <c r="M176" s="73"/>
+      <c r="N176" s="74"/>
+      <c r="O176" s="75"/>
+      <c r="P176" s="73"/>
+      <c r="Q176" s="74"/>
+      <c r="R176" s="74"/>
+      <c r="S176" s="75"/>
       <c r="T176" s="11"/>
       <c r="U176" s="11"/>
       <c r="V176" s="11"/>
@@ -6310,23 +6209,23 @@
     <row r="177" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
-      <c r="C177" s="70"/>
-      <c r="D177" s="68"/>
-      <c r="E177" s="69"/>
-      <c r="F177" s="67"/>
-      <c r="G177" s="68"/>
-      <c r="H177" s="69"/>
-      <c r="I177" s="67"/>
-      <c r="J177" s="68"/>
-      <c r="K177" s="68"/>
-      <c r="L177" s="69"/>
-      <c r="M177" s="67"/>
-      <c r="N177" s="68"/>
-      <c r="O177" s="69"/>
-      <c r="P177" s="67"/>
-      <c r="Q177" s="68"/>
-      <c r="R177" s="68"/>
-      <c r="S177" s="69"/>
+      <c r="C177" s="34"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="39"/>
+      <c r="F177" s="39"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="73"/>
+      <c r="J177" s="74"/>
+      <c r="K177" s="74"/>
+      <c r="L177" s="75"/>
+      <c r="M177" s="73"/>
+      <c r="N177" s="74"/>
+      <c r="O177" s="75"/>
+      <c r="P177" s="73"/>
+      <c r="Q177" s="74"/>
+      <c r="R177" s="74"/>
+      <c r="S177" s="75"/>
       <c r="T177" s="11"/>
       <c r="U177" s="11"/>
       <c r="V177" s="11"/>
@@ -6337,23 +6236,23 @@
     <row r="178" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
-      <c r="C178" s="70"/>
-      <c r="D178" s="68"/>
-      <c r="E178" s="69"/>
-      <c r="F178" s="67"/>
-      <c r="G178" s="68"/>
-      <c r="H178" s="69"/>
-      <c r="I178" s="67"/>
-      <c r="J178" s="68"/>
-      <c r="K178" s="68"/>
-      <c r="L178" s="69"/>
-      <c r="M178" s="67"/>
-      <c r="N178" s="68"/>
-      <c r="O178" s="69"/>
-      <c r="P178" s="67"/>
-      <c r="Q178" s="68"/>
-      <c r="R178" s="68"/>
-      <c r="S178" s="69"/>
+      <c r="C178" s="34"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="39"/>
+      <c r="F178" s="39"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="73"/>
+      <c r="J178" s="74"/>
+      <c r="K178" s="74"/>
+      <c r="L178" s="75"/>
+      <c r="M178" s="73"/>
+      <c r="N178" s="74"/>
+      <c r="O178" s="75"/>
+      <c r="P178" s="73"/>
+      <c r="Q178" s="74"/>
+      <c r="R178" s="74"/>
+      <c r="S178" s="75"/>
       <c r="T178" s="11"/>
       <c r="U178" s="11"/>
       <c r="V178" s="11"/>
@@ -6364,23 +6263,23 @@
     <row r="179" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
-      <c r="C179" s="70"/>
-      <c r="D179" s="68"/>
-      <c r="E179" s="69"/>
-      <c r="F179" s="67"/>
-      <c r="G179" s="68"/>
-      <c r="H179" s="69"/>
-      <c r="I179" s="67"/>
-      <c r="J179" s="68"/>
-      <c r="K179" s="68"/>
-      <c r="L179" s="69"/>
-      <c r="M179" s="67"/>
-      <c r="N179" s="68"/>
-      <c r="O179" s="69"/>
-      <c r="P179" s="67"/>
-      <c r="Q179" s="68"/>
-      <c r="R179" s="68"/>
-      <c r="S179" s="69"/>
+      <c r="C179" s="34"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="39"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
       <c r="T179" s="11"/>
       <c r="U179" s="11"/>
       <c r="V179" s="11"/>
@@ -6391,23 +6290,23 @@
     <row r="180" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
-      <c r="C180" s="70"/>
-      <c r="D180" s="68"/>
-      <c r="E180" s="69"/>
-      <c r="F180" s="67"/>
-      <c r="G180" s="68"/>
-      <c r="H180" s="69"/>
-      <c r="I180" s="67"/>
-      <c r="J180" s="68"/>
-      <c r="K180" s="68"/>
-      <c r="L180" s="69"/>
-      <c r="M180" s="67"/>
-      <c r="N180" s="68"/>
-      <c r="O180" s="69"/>
-      <c r="P180" s="67"/>
-      <c r="Q180" s="68"/>
-      <c r="R180" s="68"/>
-      <c r="S180" s="69"/>
+      <c r="C180" s="34"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="39"/>
+      <c r="F180" s="39"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11"/>
+      <c r="Q180" s="11"/>
+      <c r="R180" s="11"/>
+      <c r="S180" s="11"/>
       <c r="T180" s="11"/>
       <c r="U180" s="11"/>
       <c r="V180" s="11"/>
@@ -6418,23 +6317,23 @@
     <row r="181" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
-      <c r="C181" s="70"/>
-      <c r="D181" s="68"/>
-      <c r="E181" s="69"/>
-      <c r="F181" s="67"/>
-      <c r="G181" s="68"/>
-      <c r="H181" s="69"/>
-      <c r="I181" s="67"/>
-      <c r="J181" s="68"/>
-      <c r="K181" s="68"/>
-      <c r="L181" s="69"/>
-      <c r="M181" s="67"/>
-      <c r="N181" s="68"/>
-      <c r="O181" s="69"/>
-      <c r="P181" s="67"/>
-      <c r="Q181" s="68"/>
-      <c r="R181" s="68"/>
-      <c r="S181" s="69"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="39"/>
+      <c r="E181" s="39"/>
+      <c r="F181" s="39"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="11"/>
+      <c r="N181" s="11"/>
+      <c r="O181" s="11"/>
+      <c r="P181" s="11"/>
+      <c r="Q181" s="11"/>
+      <c r="R181" s="11"/>
+      <c r="S181" s="11"/>
       <c r="T181" s="11"/>
       <c r="U181" s="11"/>
       <c r="V181" s="11"/>
@@ -6445,23 +6344,23 @@
     <row r="182" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
-      <c r="C182" s="70"/>
-      <c r="D182" s="68"/>
-      <c r="E182" s="69"/>
-      <c r="F182" s="67"/>
-      <c r="G182" s="68"/>
-      <c r="H182" s="69"/>
-      <c r="I182" s="67"/>
-      <c r="J182" s="68"/>
-      <c r="K182" s="68"/>
-      <c r="L182" s="69"/>
-      <c r="M182" s="67"/>
-      <c r="N182" s="68"/>
-      <c r="O182" s="69"/>
-      <c r="P182" s="67"/>
-      <c r="Q182" s="68"/>
-      <c r="R182" s="68"/>
-      <c r="S182" s="69"/>
+      <c r="C182" s="34"/>
+      <c r="D182" s="39"/>
+      <c r="E182" s="39"/>
+      <c r="F182" s="39"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="11"/>
+      <c r="N182" s="11"/>
+      <c r="O182" s="11"/>
+      <c r="P182" s="11"/>
+      <c r="Q182" s="11"/>
+      <c r="R182" s="11"/>
+      <c r="S182" s="11"/>
       <c r="T182" s="11"/>
       <c r="U182" s="11"/>
       <c r="V182" s="11"/>
@@ -6472,23 +6371,23 @@
     <row r="183" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
-      <c r="C183" s="70"/>
-      <c r="D183" s="68"/>
-      <c r="E183" s="69"/>
-      <c r="F183" s="67"/>
-      <c r="G183" s="68"/>
-      <c r="H183" s="69"/>
-      <c r="I183" s="67"/>
-      <c r="J183" s="68"/>
-      <c r="K183" s="68"/>
-      <c r="L183" s="69"/>
-      <c r="M183" s="67"/>
-      <c r="N183" s="68"/>
-      <c r="O183" s="69"/>
-      <c r="P183" s="67"/>
-      <c r="Q183" s="68"/>
-      <c r="R183" s="68"/>
-      <c r="S183" s="69"/>
+      <c r="C183" s="34"/>
+      <c r="D183" s="39"/>
+      <c r="E183" s="39"/>
+      <c r="F183" s="39"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11"/>
+      <c r="M183" s="11"/>
+      <c r="N183" s="11"/>
+      <c r="O183" s="11"/>
+      <c r="P183" s="11"/>
+      <c r="Q183" s="11"/>
+      <c r="R183" s="11"/>
+      <c r="S183" s="11"/>
       <c r="T183" s="11"/>
       <c r="U183" s="11"/>
       <c r="V183" s="11"/>
@@ -28043,14 +27942,6 @@
       <c r="Y981" s="12"/>
     </row>
     <row r="982" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A982" s="14"/>
-      <c r="B982" s="14"/>
-      <c r="C982" s="34"/>
-      <c r="D982" s="39"/>
-      <c r="E982" s="39"/>
-      <c r="F982" s="39"/>
-      <c r="G982" s="11"/>
-      <c r="H982" s="11"/>
       <c r="I982" s="11"/>
       <c r="J982" s="11"/>
       <c r="K982" s="11"/>
@@ -28070,14 +27961,6 @@
       <c r="Y982" s="12"/>
     </row>
     <row r="983" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A983" s="14"/>
-      <c r="B983" s="14"/>
-      <c r="C983" s="34"/>
-      <c r="D983" s="39"/>
-      <c r="E983" s="39"/>
-      <c r="F983" s="39"/>
-      <c r="G983" s="11"/>
-      <c r="H983" s="11"/>
       <c r="I983" s="11"/>
       <c r="J983" s="11"/>
       <c r="K983" s="11"/>
@@ -28096,282 +27979,223 @@
       <c r="X983" s="11"/>
       <c r="Y983" s="12"/>
     </row>
-    <row r="984" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A984" s="14"/>
-      <c r="B984" s="14"/>
-      <c r="C984" s="34"/>
-      <c r="D984" s="39"/>
-      <c r="E984" s="39"/>
-      <c r="F984" s="39"/>
-      <c r="G984" s="11"/>
-      <c r="H984" s="11"/>
-      <c r="I984" s="11"/>
-      <c r="J984" s="11"/>
-      <c r="K984" s="11"/>
-      <c r="L984" s="11"/>
-      <c r="M984" s="11"/>
-      <c r="N984" s="11"/>
-      <c r="O984" s="11"/>
-      <c r="P984" s="11"/>
-      <c r="Q984" s="11"/>
-      <c r="R984" s="11"/>
-      <c r="S984" s="11"/>
-      <c r="T984" s="11"/>
-      <c r="U984" s="11"/>
-      <c r="V984" s="11"/>
-      <c r="W984" s="11"/>
-      <c r="X984" s="11"/>
-      <c r="Y984" s="12"/>
-    </row>
-    <row r="985" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A985" s="14"/>
-      <c r="B985" s="14"/>
-      <c r="C985" s="34"/>
-      <c r="D985" s="39"/>
-      <c r="E985" s="39"/>
-      <c r="F985" s="39"/>
-      <c r="G985" s="11"/>
-      <c r="H985" s="11"/>
-      <c r="I985" s="11"/>
-      <c r="J985" s="11"/>
-      <c r="K985" s="11"/>
-      <c r="L985" s="11"/>
-      <c r="M985" s="11"/>
-      <c r="N985" s="11"/>
-      <c r="O985" s="11"/>
-      <c r="P985" s="11"/>
-      <c r="Q985" s="11"/>
-      <c r="R985" s="11"/>
-      <c r="S985" s="11"/>
-      <c r="T985" s="11"/>
-      <c r="U985" s="11"/>
-      <c r="V985" s="11"/>
-      <c r="W985" s="11"/>
-      <c r="X985" s="11"/>
-      <c r="Y985" s="12"/>
-    </row>
-    <row r="986" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A986" s="14"/>
-      <c r="B986" s="14"/>
-      <c r="C986" s="34"/>
-      <c r="D986" s="39"/>
-      <c r="E986" s="39"/>
-      <c r="F986" s="39"/>
-      <c r="G986" s="11"/>
-      <c r="H986" s="11"/>
-      <c r="I986" s="11"/>
-      <c r="J986" s="11"/>
-      <c r="K986" s="11"/>
-      <c r="L986" s="11"/>
-      <c r="M986" s="11"/>
-      <c r="N986" s="11"/>
-      <c r="O986" s="11"/>
-      <c r="P986" s="11"/>
-      <c r="Q986" s="11"/>
-      <c r="R986" s="11"/>
-      <c r="S986" s="11"/>
-      <c r="T986" s="11"/>
-      <c r="U986" s="11"/>
-      <c r="V986" s="11"/>
-      <c r="W986" s="11"/>
-      <c r="X986" s="11"/>
-      <c r="Y986" s="12"/>
-    </row>
-    <row r="987" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A987" s="14"/>
-      <c r="B987" s="14"/>
-      <c r="C987" s="34"/>
-      <c r="D987" s="39"/>
-      <c r="E987" s="39"/>
-      <c r="F987" s="39"/>
-      <c r="G987" s="11"/>
-      <c r="H987" s="11"/>
-      <c r="I987" s="11"/>
-      <c r="J987" s="11"/>
-      <c r="K987" s="11"/>
-      <c r="L987" s="11"/>
-      <c r="M987" s="11"/>
-      <c r="N987" s="11"/>
-      <c r="O987" s="11"/>
-      <c r="P987" s="11"/>
-      <c r="Q987" s="11"/>
-      <c r="R987" s="11"/>
-      <c r="S987" s="11"/>
-      <c r="T987" s="11"/>
-      <c r="U987" s="11"/>
-      <c r="V987" s="11"/>
-      <c r="W987" s="11"/>
-      <c r="X987" s="11"/>
-      <c r="Y987" s="12"/>
-    </row>
-    <row r="988" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A988" s="14"/>
-      <c r="B988" s="14"/>
-      <c r="C988" s="34"/>
-      <c r="D988" s="39"/>
-      <c r="E988" s="39"/>
-      <c r="F988" s="39"/>
-      <c r="G988" s="11"/>
-      <c r="H988" s="11"/>
-      <c r="I988" s="11"/>
-      <c r="J988" s="11"/>
-      <c r="K988" s="11"/>
-      <c r="L988" s="11"/>
-      <c r="M988" s="11"/>
-      <c r="N988" s="11"/>
-      <c r="O988" s="11"/>
-      <c r="P988" s="11"/>
-      <c r="Q988" s="11"/>
-      <c r="R988" s="11"/>
-      <c r="S988" s="11"/>
-      <c r="T988" s="11"/>
-      <c r="U988" s="11"/>
-      <c r="V988" s="11"/>
-      <c r="W988" s="11"/>
-      <c r="X988" s="11"/>
-      <c r="Y988" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="371">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="P122:S122"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="M127:O127"/>
-    <mergeCell ref="P127:S127"/>
-    <mergeCell ref="M128:O128"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="I128:L128"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="M129:O129"/>
-    <mergeCell ref="P129:S129"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="M130:O130"/>
-    <mergeCell ref="P130:S130"/>
-    <mergeCell ref="M133:O133"/>
-    <mergeCell ref="P133:S133"/>
-    <mergeCell ref="I131:L131"/>
-    <mergeCell ref="M131:O131"/>
-    <mergeCell ref="P131:S131"/>
-    <mergeCell ref="I132:L132"/>
-    <mergeCell ref="M132:O132"/>
-    <mergeCell ref="P132:S132"/>
-    <mergeCell ref="I133:L133"/>
-    <mergeCell ref="M136:O136"/>
-    <mergeCell ref="P136:S136"/>
-    <mergeCell ref="I134:L134"/>
-    <mergeCell ref="M134:O134"/>
-    <mergeCell ref="P134:S134"/>
-    <mergeCell ref="I135:L135"/>
-    <mergeCell ref="M135:O135"/>
-    <mergeCell ref="P135:S135"/>
-    <mergeCell ref="I136:L136"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="M141:O141"/>
-    <mergeCell ref="P141:S141"/>
-    <mergeCell ref="I142:L142"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="P139:S139"/>
-    <mergeCell ref="I137:L137"/>
-    <mergeCell ref="M137:O137"/>
-    <mergeCell ref="P137:S137"/>
-    <mergeCell ref="I138:L138"/>
-    <mergeCell ref="M138:O138"/>
-    <mergeCell ref="P138:S138"/>
-    <mergeCell ref="I139:L139"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="M148:O148"/>
-    <mergeCell ref="P148:S148"/>
-    <mergeCell ref="I146:L146"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="P146:S146"/>
+  <mergeCells count="367">
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="I153:L153"/>
+    <mergeCell ref="M153:O153"/>
+    <mergeCell ref="P153:S153"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="P175:S175"/>
+    <mergeCell ref="I173:L173"/>
+    <mergeCell ref="M173:O173"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="I174:L174"/>
+    <mergeCell ref="M174:O174"/>
+    <mergeCell ref="P174:S174"/>
+    <mergeCell ref="I175:L175"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="M154:O154"/>
+    <mergeCell ref="P154:S154"/>
+    <mergeCell ref="I155:L155"/>
+    <mergeCell ref="P159:S159"/>
+    <mergeCell ref="M162:O162"/>
+    <mergeCell ref="P162:S162"/>
+    <mergeCell ref="I160:L160"/>
+    <mergeCell ref="M160:O160"/>
+    <mergeCell ref="P160:S160"/>
+    <mergeCell ref="M178:O178"/>
+    <mergeCell ref="P178:S178"/>
+    <mergeCell ref="I176:L176"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="P176:S176"/>
+    <mergeCell ref="I177:L177"/>
+    <mergeCell ref="M177:O177"/>
+    <mergeCell ref="P177:S177"/>
+    <mergeCell ref="I178:L178"/>
+    <mergeCell ref="M163:O163"/>
+    <mergeCell ref="P163:S163"/>
+    <mergeCell ref="I164:L164"/>
+    <mergeCell ref="M164:O164"/>
+    <mergeCell ref="P164:S164"/>
+    <mergeCell ref="I165:L165"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="M172:O172"/>
+    <mergeCell ref="P172:S172"/>
+    <mergeCell ref="M168:O168"/>
+    <mergeCell ref="P168:S168"/>
+    <mergeCell ref="I166:L166"/>
+    <mergeCell ref="M166:O166"/>
+    <mergeCell ref="P166:S166"/>
+    <mergeCell ref="I167:L167"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="F167:H167"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="F173:H173"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="M152:O152"/>
+    <mergeCell ref="P152:S152"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="M150:O150"/>
+    <mergeCell ref="P150:S150"/>
+    <mergeCell ref="I151:L151"/>
+    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="P151:S151"/>
+    <mergeCell ref="I152:L152"/>
+    <mergeCell ref="M149:O149"/>
+    <mergeCell ref="P149:S149"/>
     <mergeCell ref="I147:L147"/>
     <mergeCell ref="M147:O147"/>
     <mergeCell ref="P147:S147"/>
     <mergeCell ref="I148:L148"/>
-    <mergeCell ref="M145:O145"/>
-    <mergeCell ref="P145:S145"/>
-    <mergeCell ref="I143:L143"/>
-    <mergeCell ref="M143:O143"/>
-    <mergeCell ref="P143:S143"/>
+    <mergeCell ref="M148:O148"/>
+    <mergeCell ref="P148:S148"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="C170:E170"/>
+    <mergeCell ref="C171:E171"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="P146:S146"/>
     <mergeCell ref="I144:L144"/>
     <mergeCell ref="M144:O144"/>
     <mergeCell ref="P144:S144"/>
     <mergeCell ref="I145:L145"/>
-    <mergeCell ref="M142:O142"/>
-    <mergeCell ref="P142:S142"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="M145:O145"/>
+    <mergeCell ref="P145:S145"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="I161:L161"/>
+    <mergeCell ref="M161:O161"/>
+    <mergeCell ref="P161:S161"/>
+    <mergeCell ref="I162:L162"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="M171:O171"/>
+    <mergeCell ref="P171:S171"/>
+    <mergeCell ref="I169:L169"/>
+    <mergeCell ref="M169:O169"/>
+    <mergeCell ref="P169:S169"/>
+    <mergeCell ref="I170:L170"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="I171:L171"/>
+    <mergeCell ref="M167:O167"/>
+    <mergeCell ref="P167:S167"/>
+    <mergeCell ref="I168:L168"/>
+    <mergeCell ref="M158:O158"/>
+    <mergeCell ref="P158:S158"/>
+    <mergeCell ref="I156:L156"/>
+    <mergeCell ref="M156:O156"/>
+    <mergeCell ref="P156:S156"/>
+    <mergeCell ref="I157:L157"/>
+    <mergeCell ref="M157:O157"/>
+    <mergeCell ref="P157:S157"/>
+    <mergeCell ref="I158:L158"/>
+    <mergeCell ref="I159:L159"/>
+    <mergeCell ref="M159:O159"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="M165:O165"/>
+    <mergeCell ref="P165:S165"/>
+    <mergeCell ref="I163:L163"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="P118:S118"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="P121:S121"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="P119:S119"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="C137:E137"/>
     <mergeCell ref="F132:H132"/>
     <mergeCell ref="F133:H133"/>
     <mergeCell ref="F134:H134"/>
     <mergeCell ref="F135:H135"/>
     <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
     <mergeCell ref="C130:E130"/>
     <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="C61:H61"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
@@ -28387,223 +28211,143 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="P162:S162"/>
-    <mergeCell ref="I163:L163"/>
-    <mergeCell ref="I164:L164"/>
-    <mergeCell ref="M164:O164"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="I168:L168"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="C123:E123"/>
     <mergeCell ref="F123:H123"/>
-    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="M143:O143"/>
+    <mergeCell ref="P143:S143"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="M141:O141"/>
+    <mergeCell ref="P141:S141"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="M142:O142"/>
+    <mergeCell ref="P142:S142"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="I138:L138"/>
+    <mergeCell ref="M138:O138"/>
+    <mergeCell ref="P138:S138"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="P139:S139"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="M137:O137"/>
+    <mergeCell ref="P137:S137"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="M135:O135"/>
+    <mergeCell ref="P135:S135"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="M136:O136"/>
+    <mergeCell ref="P136:S136"/>
+    <mergeCell ref="I137:L137"/>
+    <mergeCell ref="M134:O134"/>
+    <mergeCell ref="P134:S134"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="P132:S132"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="M133:O133"/>
+    <mergeCell ref="P133:S133"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="M131:O131"/>
+    <mergeCell ref="P131:S131"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="P129:S129"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="M130:O130"/>
+    <mergeCell ref="P130:S130"/>
+    <mergeCell ref="I131:L131"/>
     <mergeCell ref="I125:L125"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="P125:S125"/>
+    <mergeCell ref="M128:O128"/>
+    <mergeCell ref="P128:S128"/>
     <mergeCell ref="I126:L126"/>
     <mergeCell ref="M126:O126"/>
     <mergeCell ref="P126:S126"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="P127:S127"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="P122:S122"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
     <mergeCell ref="I123:L123"/>
-    <mergeCell ref="M123:O123"/>
     <mergeCell ref="I124:L124"/>
     <mergeCell ref="M124:O124"/>
     <mergeCell ref="P124:S124"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="P125:S125"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="I166:L166"/>
-    <mergeCell ref="M166:O166"/>
-    <mergeCell ref="P166:S166"/>
-    <mergeCell ref="I167:L167"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="P176:S176"/>
-    <mergeCell ref="I174:L174"/>
-    <mergeCell ref="M174:O174"/>
-    <mergeCell ref="P174:S174"/>
-    <mergeCell ref="I175:L175"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="P175:S175"/>
-    <mergeCell ref="I176:L176"/>
-    <mergeCell ref="M172:O172"/>
-    <mergeCell ref="P172:S172"/>
-    <mergeCell ref="I173:L173"/>
-    <mergeCell ref="M163:O163"/>
-    <mergeCell ref="P163:S163"/>
-    <mergeCell ref="I161:L161"/>
-    <mergeCell ref="M161:O161"/>
-    <mergeCell ref="P161:S161"/>
-    <mergeCell ref="I162:L162"/>
-    <mergeCell ref="M162:O162"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="P151:S151"/>
-    <mergeCell ref="I149:L149"/>
-    <mergeCell ref="M149:O149"/>
-    <mergeCell ref="P149:S149"/>
-    <mergeCell ref="I150:L150"/>
-    <mergeCell ref="M150:O150"/>
-    <mergeCell ref="P150:S150"/>
-    <mergeCell ref="I151:L151"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="C153:E153"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="C156:E156"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="C170:E170"/>
-    <mergeCell ref="C171:E171"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="C181:E181"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C175:E175"/>
-    <mergeCell ref="C176:E176"/>
-    <mergeCell ref="C177:E177"/>
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="M154:O154"/>
-    <mergeCell ref="P154:S154"/>
-    <mergeCell ref="I152:L152"/>
-    <mergeCell ref="M152:O152"/>
-    <mergeCell ref="P152:S152"/>
-    <mergeCell ref="I153:L153"/>
-    <mergeCell ref="M153:O153"/>
-    <mergeCell ref="P153:S153"/>
-    <mergeCell ref="I154:L154"/>
-    <mergeCell ref="M157:O157"/>
-    <mergeCell ref="P157:S157"/>
-    <mergeCell ref="I155:L155"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="I156:L156"/>
-    <mergeCell ref="M156:O156"/>
-    <mergeCell ref="P156:S156"/>
-    <mergeCell ref="I157:L157"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="F177:H177"/>
-    <mergeCell ref="F178:H178"/>
-    <mergeCell ref="F179:H179"/>
-    <mergeCell ref="F180:H180"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="F166:H166"/>
-    <mergeCell ref="F167:H167"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="F173:H173"/>
-    <mergeCell ref="F181:H181"/>
-    <mergeCell ref="F182:H182"/>
-    <mergeCell ref="M168:O168"/>
-    <mergeCell ref="P168:S168"/>
-    <mergeCell ref="I169:L169"/>
-    <mergeCell ref="M169:O169"/>
-    <mergeCell ref="P169:S169"/>
-    <mergeCell ref="I170:L170"/>
-    <mergeCell ref="I177:L177"/>
-    <mergeCell ref="M177:O177"/>
-    <mergeCell ref="P177:S177"/>
-    <mergeCell ref="M173:O173"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="I171:L171"/>
-    <mergeCell ref="M171:O171"/>
-    <mergeCell ref="P171:S171"/>
-    <mergeCell ref="I172:L172"/>
-    <mergeCell ref="M183:O183"/>
-    <mergeCell ref="P183:S183"/>
-    <mergeCell ref="I181:L181"/>
-    <mergeCell ref="M181:O181"/>
-    <mergeCell ref="P181:S181"/>
-    <mergeCell ref="I182:L182"/>
-    <mergeCell ref="M182:O182"/>
-    <mergeCell ref="P182:S182"/>
-    <mergeCell ref="I183:L183"/>
-    <mergeCell ref="M160:O160"/>
-    <mergeCell ref="P160:S160"/>
-    <mergeCell ref="I158:L158"/>
-    <mergeCell ref="M158:O158"/>
-    <mergeCell ref="P158:S158"/>
-    <mergeCell ref="M180:O180"/>
-    <mergeCell ref="P180:S180"/>
-    <mergeCell ref="I178:L178"/>
-    <mergeCell ref="M178:O178"/>
-    <mergeCell ref="P178:S178"/>
-    <mergeCell ref="I179:L179"/>
-    <mergeCell ref="M179:O179"/>
-    <mergeCell ref="P179:S179"/>
-    <mergeCell ref="I180:L180"/>
-    <mergeCell ref="I159:L159"/>
-    <mergeCell ref="M159:O159"/>
-    <mergeCell ref="P159:S159"/>
-    <mergeCell ref="I160:L160"/>
-    <mergeCell ref="P164:S164"/>
-    <mergeCell ref="M167:O167"/>
-    <mergeCell ref="P167:S167"/>
-    <mergeCell ref="I165:L165"/>
-    <mergeCell ref="M165:O165"/>
-    <mergeCell ref="P165:S165"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="P117:S117"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A1:D4">
@@ -28623,15 +28367,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A03E5BDC5C551145B693F0E5668ABB8D" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="264a204121950b4e2a600f3c5248fd72">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8323ff4e-5af7-4051-9371-eadce3aee04b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fa8bcd29ede334e0e5723b4a87a0299" ns2:_="">
     <xsd:import namespace="8323ff4e-5af7-4051-9371-eadce3aee04b"/>
@@ -28769,6 +28504,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -28776,14 +28520,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE45D4B-B629-4110-ABAC-4B0F11E7BBFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AF1A98-FC3C-4C1B-8965-9757BC4517AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28801,6 +28537,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE45D4B-B629-4110-ABAC-4B0F11E7BBFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75874065-9FDF-4780-9B87-C1C24E93EFA3}">
   <ds:schemaRefs>
